--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="83">
   <si>
     <t>Doi</t>
   </si>
@@ -318,6 +318,42 @@
   </si>
   <si>
     <t>[ X.%Luo%null%1,   H.% Xia%null%1,   W.% Yang%null%1,   B.% Wang%null%1,   T.% Guo%null%1,   J.% Xiong%null%1,   Z.% Jiang%null%1,   Y.% Liu%null%0,   X.% Yan%null%0,   W.% Zhou%null%0,   L.% Ye%null%1,   B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,   Ting%Yu%NULL%0,   Ronghui%Du%NULL%0,   Guohui%Fan%NULL%0,   Ying%Liu%NULL%0,   Zhibo%Liu%NULL%0,   Jie%Xiang%NULL%0,   Yeming%Wang%NULL%0,   Bin%Song%NULL%0,   Xiaoying%Gu%NULL%0,   Lulu%Guan%NULL%0,   Yuan%Wei%NULL%0,   Hui%Li%NULL%0,   Xudong%Wu%NULL%0,   Jiuyang%Xu%NULL%0,   Shengjin%Tu%NULL%0,   Yi%Zhang%NULL%0,   Hua%Chen%NULL%0,   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,   Xinsheng%Yan%NULL%1,   Qingkun%Fan%NULL%1,   Haiyan%Liu%NULL%1,   Xintian%Liu%NULL%1,   Zejin%Liu%NULL%1,   Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,   Li-Rong%Liang%NULL%0,   Cheng-Qing%Yang%NULL%0,   Wen%Wang%NULL%0,   Tan-Ze%Cao%NULL%0,   Ming%Li%NULL%0,   Guang-Yun%Guo%NULL%0,   Juan%Du%NULL%0,   Chun-Lan%Zheng%NULL%0,   Qi%Zhu%NULL%0,   Ming%Hu%NULL%0,   Xu-Yan%Li%NULL%0,   Peng%Peng%NULL%0,   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,   Wenlin%Cheng%NULL%0,   Lei%Yu%NULL%0,   Ya-Kun%Liu%NULL%0,   Xiaoyong%Hu%NULL%0,   Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,   Anna Lisa%Ridolfo%NULL%1,   Laura%Milazzo%NULL%1,   Letizia%Oreni%NULL%1,   Dario%Bernacchia%NULL%1,   Matteo%Siano%NULL%1,   Cecilia%Bonazzetti%NULL%1,   Alice%Covizzi%NULL%1,   Marco%Schiuma%NULL%1,   Matteo%Passerini%NULL%1,   Marco%Piscaglia%NULL%1,   Massimo%Coen%NULL%1,   Guido%Gubertini%NULL%1,   Giuliano%Rizzardini%NULL%1,   Chiara%Cogliati%NULL%1,   Anna Maria%Brambilla%NULL%1,   Riccardo%Colombo%NULL%1,   Antonio%Castelli%NULL%1,   Roberto%Rech%NULL%1,   Agostino%Riva%NULL%1,   Alessandro%Torre%NULL%1,   Luca%Meroni%NULL%1,   Stefano%Rusconi%NULL%1,   Spinello%Antinori%NULL%1,   Massimo%Galli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,    A.% Russak%null%1,    J. K.% De Freitas%null%1,    A.% Lala%null%1,    R.% Miotto%null%1,    A.% Vaid%null%1,    K. W.% Johnson%null%1,    M.% Danieletto%null%1,    E.% Golden%null%1,    D.% Meyer%null%1,    M.% Singh%null%1,    S.% Somani%null%1,    S.% Manna%null%1,    U.% Nangia%null%1,    A.% Kapoor%null%1,    R.% O'Hagan%null%1,    P. F.% O'Reilly%null%1,    L. M.% Huckins%null%1,    P.% Glowe%null%1,    A.% Kia%null%1,    P.% Timsina%null%1,    R. M.% Freeman%null%1,    M. A.% Levin%null%1,    J.% Jhang%null%1,    A.% Firpo%null%1,    P.% Kovatch%null%0,    J.% Finkelstein%null%1,    J. A.% Aberg%null%1,    E.% Bagiella%null%1,    C. R.% Horowitz%null%1,    B.% Murphy%null%1,    Z. A.% Fayad%null%1,    J.% Narula%null%1,    E. J.% Nestler%null%1,    V.% Fuster%null%1,    C.% Cordon-Cardo%null%1,    D. S.% Charney%null%1,    D. L.% Reich%null%1,    A. C.% Just%null%1,    E. P.% Bottinger%null%1,    A. W.% Charney%null%1,    B. S.% Glicksberg%null%1,    G.% Nadkarni%null%1,   couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,   Di%Wu%NULL%0,   Huilong%Chen%NULL%0,   Weiming%Yan%NULL%0,   Danlei%Yang%NULL%0,   Guang%Chen%NULL%0,   Ke%Ma%NULL%0,   Dong%Xu%NULL%0,   Haijing%Yu%NULL%0,   Hongwu%Wang%NULL%0,   Tao%Wang%NULL%0,   Wei%Guo%NULL%0,   Jia%Chen%NULL%0,   Chen%Ding%NULL%0,   Xiaoping%Zhang%NULL%0,   Jiaquan%Huang%NULL%0,   Meifang%Han%NULL%0,   Shusheng%Li%NULL%0,   Xiaoping%Luo%NULL%0,   Jianping%Zhao%NULL%0,   Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,    H.% Xia%null%1,    W.% Yang%null%1,    B.% Wang%null%1,    T.% Guo%null%1,    J.% Xiong%null%1,    Z.% Jiang%null%1,    Y.% Liu%null%1,    X.% Yan%null%1,    W.% Zhou%null%0,    L.% Ye%null%1,    B. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -636,6 +672,9 @@
       <c r="H1" t="s">
         <v>23</v>
       </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -651,7 +690,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -661,6 +700,9 @@
       </c>
       <c r="H2" t="s">
         <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -677,7 +719,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -687,6 +729,9 @@
       </c>
       <c r="H3" t="s">
         <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -703,7 +748,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -713,6 +758,9 @@
       </c>
       <c r="H4" t="s">
         <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -729,7 +777,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -739,6 +787,9 @@
       </c>
       <c r="H5" t="s">
         <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -755,7 +806,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -765,6 +816,9 @@
       </c>
       <c r="H6" t="s">
         <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -781,16 +835,19 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
@@ -807,7 +864,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -817,6 +874,9 @@
       </c>
       <c r="H8" t="s">
         <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -833,16 +893,19 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -869,6 +932,9 @@
       </c>
       <c r="H10" t="s">
         <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="115">
   <si>
     <t>Doi</t>
   </si>
@@ -354,6 +354,102 @@
   </si>
   <si>
     <t>[ X.%Luo%null%1,    H.% Xia%null%1,    W.% Yang%null%1,    B.% Wang%null%1,    T.% Guo%null%1,    J.% Xiong%null%1,    Z.% Jiang%null%1,    Y.% Liu%null%1,    X.% Yan%null%1,    W.% Zhou%null%0,    L.% Ye%null%1,    B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,    Ting%Yu%NULL%0,    Ronghui%Du%NULL%0,    Guohui%Fan%NULL%0,    Ying%Liu%NULL%0,    Zhibo%Liu%NULL%0,    Jie%Xiang%NULL%0,    Yeming%Wang%NULL%0,    Bin%Song%NULL%0,    Xiaoying%Gu%NULL%0,    Lulu%Guan%NULL%0,    Yuan%Wei%NULL%0,    Hui%Li%NULL%0,    Xudong%Wu%NULL%0,    Jiuyang%Xu%NULL%0,    Shengjin%Tu%NULL%0,    Yi%Zhang%NULL%0,    Hua%Chen%NULL%0,    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,    Xinsheng%Yan%NULL%1,    Qingkun%Fan%NULL%1,    Haiyan%Liu%NULL%1,    Xintian%Liu%NULL%1,    Zejin%Liu%NULL%1,    Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,    Li-Rong%Liang%NULL%0,    Cheng-Qing%Yang%NULL%0,    Wen%Wang%NULL%0,    Tan-Ze%Cao%NULL%0,    Ming%Li%NULL%0,    Guang-Yun%Guo%NULL%0,    Juan%Du%NULL%0,    Chun-Lan%Zheng%NULL%0,    Qi%Zhu%NULL%0,    Ming%Hu%NULL%0,    Xu-Yan%Li%NULL%0,    Peng%Peng%NULL%0,    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,    Wenlin%Cheng%NULL%0,    Lei%Yu%NULL%0,    Ya-Kun%Liu%NULL%0,    Xiaoyong%Hu%NULL%0,    Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,    Anna Lisa%Ridolfo%NULL%0,    Laura%Milazzo%NULL%1,    Letizia%Oreni%NULL%0,    Dario%Bernacchia%NULL%0,    Matteo%Siano%NULL%0,    Cecilia%Bonazzetti%NULL%1,    Alice%Covizzi%NULL%1,    Marco%Schiuma%NULL%1,    Matteo%Passerini%NULL%1,    Marco%Piscaglia%NULL%1,    Massimo%Coen%NULL%1,    Guido%Gubertini%NULL%1,    Giuliano%Rizzardini%NULL%0,    Chiara%Cogliati%NULL%1,    Anna Maria%Brambilla%NULL%1,    Riccardo%Colombo%NULL%1,    Antonio%Castelli%NULL%1,    Roberto%Rech%NULL%1,    Agostino%Riva%NULL%1,    Alessandro%Torre%NULL%1,    Luca%Meroni%NULL%1,    Stefano%Rusconi%NULL%0,    Spinello%Antinori%NULL%0,    Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,     A.% Russak%null%1,     J. K.% De Freitas%null%1,     A.% Lala%null%1,     R.% Miotto%null%1,     A.% Vaid%null%1,     K. W.% Johnson%null%1,     M.% Danieletto%null%1,     E.% Golden%null%1,     D.% Meyer%null%1,     M.% Singh%null%1,     S.% Somani%null%1,     S.% Manna%null%1,     U.% Nangia%null%1,     A.% Kapoor%null%1,     R.% O'Hagan%null%1,     P. F.% O'Reilly%null%1,     L. M.% Huckins%null%1,     P.% Glowe%null%1,     A.% Kia%null%1,     P.% Timsina%null%1,     R. M.% Freeman%null%1,     M. A.% Levin%null%1,     J.% Jhang%null%1,     A.% Firpo%null%1,     P.% Kovatch%null%0,     J.% Finkelstein%null%1,     J. A.% Aberg%null%1,     E.% Bagiella%null%1,     C. R.% Horowitz%null%1,     B.% Murphy%null%1,     Z. A.% Fayad%null%1,     J.% Narula%null%1,     E. J.% Nestler%null%1,     V.% Fuster%null%1,     C.% Cordon-Cardo%null%1,     D. S.% Charney%null%1,     D. L.% Reich%null%1,     A. C.% Just%null%1,     E. P.% Bottinger%null%1,     A. W.% Charney%null%1,     B. S.% Glicksberg%null%1,     G.% Nadkarni%null%1,    couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,    Di%Wu%NULL%0,    Huilong%Chen%NULL%0,    Weiming%Yan%NULL%0,    Danlei%Yang%NULL%0,    Guang%Chen%NULL%0,    Ke%Ma%NULL%0,    Dong%Xu%NULL%0,    Haijing%Yu%NULL%0,    Hongwu%Wang%NULL%0,    Tao%Wang%NULL%0,    Wei%Guo%NULL%0,    Jia%Chen%NULL%0,    Chen%Ding%NULL%0,    Xiaoping%Zhang%NULL%0,    Jiaquan%Huang%NULL%0,    Meifang%Han%NULL%0,    Shusheng%Li%NULL%0,    Xiaoping%Luo%NULL%0,    Jianping%Zhao%NULL%0,    Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,     H.% Xia%null%1,     W.% Yang%null%1,     B.% Wang%null%1,     T.% Guo%null%1,     J.% Xiong%null%1,     Z.% Jiang%null%1,     Y.% Liu%null%0,     X.% Yan%null%1,     W.% Zhou%null%0,     L.% Ye%null%1,     B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,     Ting%Yu%NULL%0,     Ronghui%Du%NULL%0,     Guohui%Fan%NULL%0,     Ying%Liu%NULL%0,     Zhibo%Liu%NULL%0,     Jie%Xiang%NULL%0,     Yeming%Wang%NULL%0,     Bin%Song%NULL%0,     Xiaoying%Gu%NULL%0,     Lulu%Guan%NULL%0,     Yuan%Wei%NULL%0,     Hui%Li%NULL%0,     Xudong%Wu%NULL%0,     Jiuyang%Xu%NULL%0,     Shengjin%Tu%NULL%0,     Yi%Zhang%NULL%0,     Hua%Chen%NULL%0,     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,     Xinsheng%Yan%NULL%1,     Qingkun%Fan%NULL%1,     Haiyan%Liu%NULL%1,     Xintian%Liu%NULL%1,     Zejin%Liu%NULL%1,     Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,     Li-Rong%Liang%NULL%0,     Cheng-Qing%Yang%NULL%0,     Wen%Wang%NULL%0,     Tan-Ze%Cao%NULL%0,     Ming%Li%NULL%0,     Guang-Yun%Guo%NULL%0,     Juan%Du%NULL%0,     Chun-Lan%Zheng%NULL%0,     Qi%Zhu%NULL%0,     Ming%Hu%NULL%0,     Xu-Yan%Li%NULL%0,     Peng%Peng%NULL%0,     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,     Wenlin%Cheng%NULL%0,     Lei%Yu%NULL%0,     Ya-Kun%Liu%NULL%0,     Xiaoyong%Hu%NULL%0,     Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,     Anna Lisa%Ridolfo%NULL%0,     Laura%Milazzo%NULL%0,     Letizia%Oreni%NULL%0,     Dario%Bernacchia%NULL%0,     Matteo%Siano%NULL%0,     Cecilia%Bonazzetti%NULL%0,     Alice%Covizzi%NULL%0,     Marco%Schiuma%NULL%0,     Matteo%Passerini%NULL%0,     Marco%Piscaglia%NULL%0,     Massimo%Coen%NULL%0,     Guido%Gubertini%NULL%0,     Giuliano%Rizzardini%NULL%0,     Chiara%Cogliati%NULL%0,     Anna Maria%Brambilla%NULL%0,     Riccardo%Colombo%NULL%0,     Antonio%Castelli%NULL%0,     Roberto%Rech%NULL%0,     Agostino%Riva%NULL%0,     Alessandro%Torre%NULL%0,     Luca%Meroni%NULL%0,     Stefano%Rusconi%NULL%0,     Spinello%Antinori%NULL%0,     Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,      A.% Russak%null%1,      J. K.% De Freitas%null%1,      A.% Lala%null%1,      R.% Miotto%null%1,      A.% Vaid%null%1,      K. W.% Johnson%null%1,      M.% Danieletto%null%1,      E.% Golden%null%1,      D.% Meyer%null%1,      M.% Singh%null%1,      S.% Somani%null%1,      S.% Manna%null%1,      U.% Nangia%null%1,      A.% Kapoor%null%1,      R.% O'Hagan%null%1,      P. F.% O'Reilly%null%1,      L. M.% Huckins%null%1,      P.% Glowe%null%1,      A.% Kia%null%1,      P.% Timsina%null%1,      R. M.% Freeman%null%1,      M. A.% Levin%null%1,      J.% Jhang%null%1,      A.% Firpo%null%1,      P.% Kovatch%null%0,      J.% Finkelstein%null%1,      J. A.% Aberg%null%1,      E.% Bagiella%null%1,      C. R.% Horowitz%null%1,      B.% Murphy%null%1,      Z. A.% Fayad%null%1,      J.% Narula%null%1,      E. J.% Nestler%null%1,      V.% Fuster%null%1,      C.% Cordon-Cardo%null%1,      D. S.% Charney%null%1,      D. L.% Reich%null%1,      A. C.% Just%null%1,      E. P.% Bottinger%null%1,      A. W.% Charney%null%1,      B. S.% Glicksberg%null%1,      G.% Nadkarni%null%1,     couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,     Di%Wu%NULL%0,     Huilong%Chen%NULL%0,     Weiming%Yan%NULL%0,     Danlei%Yang%NULL%0,     Guang%Chen%NULL%0,     Ke%Ma%NULL%0,     Dong%Xu%NULL%0,     Haijing%Yu%NULL%0,     Hongwu%Wang%NULL%0,     Tao%Wang%NULL%0,     Wei%Guo%NULL%0,     Jia%Chen%NULL%0,     Chen%Ding%NULL%0,     Xiaoping%Zhang%NULL%0,     Jiaquan%Huang%NULL%0,     Meifang%Han%NULL%0,     Shusheng%Li%NULL%0,     Xiaoping%Luo%NULL%0,     Jianping%Zhao%NULL%0,     Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,      H.% Xia%null%1,      W.% Yang%null%1,      B.% Wang%null%1,      T.% Guo%null%1,      J.% Xiong%null%1,      Z.% Jiang%null%1,      Y.% Liu%null%0,      X.% Yan%null%1,      W.% Zhou%null%0,      L.% Ye%null%1,      B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,      Ting%Yu%NULL%0,      Ronghui%Du%NULL%0,      Guohui%Fan%NULL%0,      Ying%Liu%NULL%0,      Zhibo%Liu%NULL%0,      Jie%Xiang%NULL%0,      Yeming%Wang%NULL%0,      Bin%Song%NULL%0,      Xiaoying%Gu%NULL%0,      Lulu%Guan%NULL%0,      Yuan%Wei%NULL%0,      Hui%Li%NULL%0,      Xudong%Wu%NULL%0,      Jiuyang%Xu%NULL%0,      Shengjin%Tu%NULL%0,      Yi%Zhang%NULL%0,      Hua%Chen%NULL%0,      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,      Xinsheng%Yan%NULL%1,      Qingkun%Fan%NULL%1,      Haiyan%Liu%NULL%1,      Xintian%Liu%NULL%1,      Zejin%Liu%NULL%1,      Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,      Li-Rong%Liang%NULL%0,      Cheng-Qing%Yang%NULL%0,      Wen%Wang%NULL%0,      Tan-Ze%Cao%NULL%0,      Ming%Li%NULL%0,      Guang-Yun%Guo%NULL%0,      Juan%Du%NULL%0,      Chun-Lan%Zheng%NULL%0,      Qi%Zhu%NULL%0,      Ming%Hu%NULL%0,      Xu-Yan%Li%NULL%0,      Peng%Peng%NULL%0,      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,      Wenlin%Cheng%NULL%0,      Lei%Yu%NULL%0,      Ya-Kun%Liu%NULL%0,      Xiaoyong%Hu%NULL%0,      Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,      Anna Lisa%Ridolfo%NULL%0,      Laura%Milazzo%NULL%0,      Letizia%Oreni%NULL%0,      Dario%Bernacchia%NULL%0,      Matteo%Siano%NULL%0,      Cecilia%Bonazzetti%NULL%0,      Alice%Covizzi%NULL%0,      Marco%Schiuma%NULL%0,      Matteo%Passerini%NULL%0,      Marco%Piscaglia%NULL%0,      Massimo%Coen%NULL%0,      Guido%Gubertini%NULL%0,      Giuliano%Rizzardini%NULL%0,      Chiara%Cogliati%NULL%0,      Anna Maria%Brambilla%NULL%0,      Riccardo%Colombo%NULL%0,      Antonio%Castelli%NULL%0,      Roberto%Rech%NULL%0,      Agostino%Riva%NULL%0,      Alessandro%Torre%NULL%0,      Luca%Meroni%NULL%0,      Stefano%Rusconi%NULL%0,      Spinello%Antinori%NULL%0,      Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,       A.% Russak%null%1,       J. K.% De Freitas%null%1,       A.% Lala%null%1,       R.% Miotto%null%1,       A.% Vaid%null%1,       K. W.% Johnson%null%1,       M.% Danieletto%null%1,       E.% Golden%null%1,       D.% Meyer%null%1,       M.% Singh%null%1,       S.% Somani%null%1,       S.% Manna%null%1,       U.% Nangia%null%1,       A.% Kapoor%null%1,       R.% O'Hagan%null%1,       P. F.% O'Reilly%null%1,       L. M.% Huckins%null%1,       P.% Glowe%null%1,       A.% Kia%null%1,       P.% Timsina%null%1,       R. M.% Freeman%null%1,       M. A.% Levin%null%1,       J.% Jhang%null%1,       A.% Firpo%null%1,       P.% Kovatch%null%0,       J.% Finkelstein%null%1,       J. A.% Aberg%null%1,       E.% Bagiella%null%1,       C. R.% Horowitz%null%1,       B.% Murphy%null%1,       Z. A.% Fayad%null%1,       J.% Narula%null%1,       E. J.% Nestler%null%1,       V.% Fuster%null%1,       C.% Cordon-Cardo%null%1,       D. S.% Charney%null%1,       D. L.% Reich%null%1,       A. C.% Just%null%1,       E. P.% Bottinger%null%1,       A. W.% Charney%null%1,       B. S.% Glicksberg%null%1,       G.% Nadkarni%null%1,      couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,      Di%Wu%NULL%0,      Huilong%Chen%NULL%0,      Weiming%Yan%NULL%0,      Danlei%Yang%NULL%0,      Guang%Chen%NULL%0,      Ke%Ma%NULL%0,      Dong%Xu%NULL%0,      Haijing%Yu%NULL%0,      Hongwu%Wang%NULL%0,      Tao%Wang%NULL%0,      Wei%Guo%NULL%0,      Jia%Chen%NULL%0,      Chen%Ding%NULL%0,      Xiaoping%Zhang%NULL%0,      Jiaquan%Huang%NULL%0,      Meifang%Han%NULL%0,      Shusheng%Li%NULL%0,      Xiaoping%Luo%NULL%0,      Jianping%Zhao%NULL%0,      Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,       H.% Xia%null%1,       W.% Yang%null%1,       B.% Wang%null%1,       T.% Guo%null%1,       J.% Xiong%null%1,       Z.% Jiang%null%1,       Y.% Liu%null%0,       X.% Yan%null%1,       W.% Zhou%null%0,       L.% Ye%null%1,       B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,       Ting%Yu%NULL%0,       Ronghui%Du%NULL%0,       Guohui%Fan%NULL%0,       Ying%Liu%NULL%0,       Zhibo%Liu%NULL%0,       Jie%Xiang%NULL%0,       Yeming%Wang%NULL%0,       Bin%Song%NULL%0,       Xiaoying%Gu%NULL%0,       Lulu%Guan%NULL%0,       Yuan%Wei%NULL%0,       Hui%Li%NULL%0,       Xudong%Wu%NULL%0,       Jiuyang%Xu%NULL%0,       Shengjin%Tu%NULL%0,       Yi%Zhang%NULL%0,       Hua%Chen%NULL%0,       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,       Xinsheng%Yan%NULL%1,       Qingkun%Fan%NULL%1,       Haiyan%Liu%NULL%1,       Xintian%Liu%NULL%1,       Zejin%Liu%NULL%1,       Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,       Li-Rong%Liang%NULL%0,       Cheng-Qing%Yang%NULL%0,       Wen%Wang%NULL%0,       Tan-Ze%Cao%NULL%0,       Ming%Li%NULL%0,       Guang-Yun%Guo%NULL%0,       Juan%Du%NULL%0,       Chun-Lan%Zheng%NULL%0,       Qi%Zhu%NULL%0,       Ming%Hu%NULL%0,       Xu-Yan%Li%NULL%0,       Peng%Peng%NULL%0,       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,       Wenlin%Cheng%NULL%0,       Lei%Yu%NULL%0,       Ya-Kun%Liu%NULL%0,       Xiaoyong%Hu%NULL%0,       Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,       Anna Lisa%Ridolfo%NULL%0,       Laura%Milazzo%NULL%0,       Letizia%Oreni%NULL%0,       Dario%Bernacchia%NULL%0,       Matteo%Siano%NULL%0,       Cecilia%Bonazzetti%NULL%0,       Alice%Covizzi%NULL%0,       Marco%Schiuma%NULL%0,       Matteo%Passerini%NULL%0,       Marco%Piscaglia%NULL%0,       Massimo%Coen%NULL%0,       Guido%Gubertini%NULL%0,       Giuliano%Rizzardini%NULL%0,       Chiara%Cogliati%NULL%0,       Anna Maria%Brambilla%NULL%0,       Riccardo%Colombo%NULL%0,       Antonio%Castelli%NULL%0,       Roberto%Rech%NULL%0,       Agostino%Riva%NULL%0,       Alessandro%Torre%NULL%0,       Luca%Meroni%NULL%0,       Stefano%Rusconi%NULL%0,       Spinello%Antinori%NULL%0,       Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,        A.% Russak%null%1,        J. K.% De Freitas%null%1,        A.% Lala%null%1,        R.% Miotto%null%1,        A.% Vaid%null%1,        K. W.% Johnson%null%1,        M.% Danieletto%null%1,        E.% Golden%null%1,        D.% Meyer%null%1,        M.% Singh%null%1,        S.% Somani%null%1,        S.% Manna%null%1,        U.% Nangia%null%1,        A.% Kapoor%null%1,        R.% O'Hagan%null%1,        P. F.% O'Reilly%null%1,        L. M.% Huckins%null%1,        P.% Glowe%null%1,        A.% Kia%null%1,        P.% Timsina%null%1,        R. M.% Freeman%null%1,        M. A.% Levin%null%1,        J.% Jhang%null%1,        A.% Firpo%null%1,        P.% Kovatch%null%0,        J.% Finkelstein%null%1,        J. A.% Aberg%null%1,        E.% Bagiella%null%1,        C. R.% Horowitz%null%1,        B.% Murphy%null%1,        Z. A.% Fayad%null%1,        J.% Narula%null%1,        E. J.% Nestler%null%1,        V.% Fuster%null%1,        C.% Cordon-Cardo%null%1,        D. S.% Charney%null%1,        D. L.% Reich%null%1,        A. C.% Just%null%1,        E. P.% Bottinger%null%1,        A. W.% Charney%null%1,        B. S.% Glicksberg%null%1,        G.% Nadkarni%null%1,       couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,       Di%Wu%NULL%0,       Huilong%Chen%NULL%0,       Weiming%Yan%NULL%0,       Danlei%Yang%NULL%0,       Guang%Chen%NULL%0,       Ke%Ma%NULL%0,       Dong%Xu%NULL%0,       Haijing%Yu%NULL%0,       Hongwu%Wang%NULL%0,       Tao%Wang%NULL%0,       Wei%Guo%NULL%0,       Jia%Chen%NULL%0,       Chen%Ding%NULL%0,       Xiaoping%Zhang%NULL%0,       Jiaquan%Huang%NULL%0,       Meifang%Han%NULL%0,       Shusheng%Li%NULL%0,       Xiaoping%Luo%NULL%0,       Jianping%Zhao%NULL%0,       Qin%Ning%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,        H.% Xia%null%1,        W.% Yang%null%1,        B.% Wang%null%1,        T.% Guo%null%1,        J.% Xiong%null%1,        Z.% Jiang%null%1,        Y.% Liu%null%0,        X.% Yan%null%1,        W.% Zhou%null%0,        L.% Ye%null%1,        B. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -690,7 +786,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -719,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -748,7 +844,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -777,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -806,7 +902,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -835,7 +931,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -864,7 +960,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -893,7 +989,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="136">
   <si>
     <t>Doi</t>
   </si>
@@ -450,6 +450,69 @@
   </si>
   <si>
     <t>[ X.%Luo%null%1,        H.% Xia%null%1,        W.% Yang%null%1,        B.% Wang%null%1,        T.% Guo%null%1,        J.% Xiong%null%1,        Z.% Jiang%null%1,        Y.% Liu%null%0,        X.% Yan%null%1,        W.% Zhou%null%0,        L.% Ye%null%1,        B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,        Ting%Yu%NULL%0,        Ronghui%Du%NULL%0,        Guohui%Fan%NULL%0,        Ying%Liu%NULL%0,        Zhibo%Liu%NULL%0,        Jie%Xiang%NULL%0,        Yeming%Wang%NULL%0,        Bin%Song%NULL%0,        Xiaoying%Gu%NULL%0,        Lulu%Guan%NULL%0,        Yuan%Wei%NULL%0,        Hui%Li%NULL%0,        Xudong%Wu%NULL%0,        Jiuyang%Xu%NULL%0,        Shengjin%Tu%NULL%0,        Yi%Zhang%NULL%0,        Hua%Chen%NULL%0,        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,        Xinsheng%Yan%NULL%1,        Qingkun%Fan%NULL%1,        Haiyan%Liu%NULL%1,        Xintian%Liu%NULL%1,        Zejin%Liu%NULL%1,        Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,        Li-Rong%Liang%NULL%0,        Cheng-Qing%Yang%NULL%0,        Wen%Wang%NULL%0,        Tan-Ze%Cao%NULL%0,        Ming%Li%NULL%0,        Guang-Yun%Guo%NULL%0,        Juan%Du%NULL%0,        Chun-Lan%Zheng%NULL%0,        Qi%Zhu%NULL%0,        Ming%Hu%NULL%0,        Xu-Yan%Li%NULL%0,        Peng%Peng%NULL%0,        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,        Wenlin%Cheng%NULL%1,        Lei%Yu%NULL%1,        Ya-Kun%Liu%NULL%1,        Xiaoyong%Hu%NULL%1,        Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,        Anna Lisa%Ridolfo%NULL%0,        Laura%Milazzo%NULL%0,        Letizia%Oreni%NULL%0,        Dario%Bernacchia%NULL%0,        Matteo%Siano%NULL%0,        Cecilia%Bonazzetti%NULL%0,        Alice%Covizzi%NULL%0,        Marco%Schiuma%NULL%0,        Matteo%Passerini%NULL%0,        Marco%Piscaglia%NULL%0,        Massimo%Coen%NULL%0,        Guido%Gubertini%NULL%0,        Giuliano%Rizzardini%NULL%0,        Chiara%Cogliati%NULL%0,        Anna Maria%Brambilla%NULL%0,        Riccardo%Colombo%NULL%0,        Antonio%Castelli%NULL%0,        Roberto%Rech%NULL%0,        Agostino%Riva%NULL%0,        Alessandro%Torre%NULL%0,        Luca%Meroni%NULL%0,        Stefano%Rusconi%NULL%0,        Spinello%Antinori%NULL%0,        Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,         A.% Russak%null%1,         J. K.% De Freitas%null%1,         A.% Lala%null%1,         R.% Miotto%null%1,         A.% Vaid%null%1,         K. W.% Johnson%null%1,         M.% Danieletto%null%1,         E.% Golden%null%1,         D.% Meyer%null%1,         M.% Singh%null%1,         S.% Somani%null%1,         S.% Manna%null%1,         U.% Nangia%null%1,         A.% Kapoor%null%1,         R.% O'Hagan%null%1,         P. F.% O'Reilly%null%1,         L. M.% Huckins%null%1,         P.% Glowe%null%1,         A.% Kia%null%1,         P.% Timsina%null%1,         R. M.% Freeman%null%1,         M. A.% Levin%null%1,         J.% Jhang%null%1,         A.% Firpo%null%1,         P.% Kovatch%null%1,         J.% Finkelstein%null%1,         J. A.% Aberg%null%1,         E.% Bagiella%null%1,         C. R.% Horowitz%null%1,         B.% Murphy%null%1,         Z. A.% Fayad%null%1,         J.% Narula%null%1,         E. J.% Nestler%null%1,         V.% Fuster%null%1,         C.% Cordon-Cardo%null%1,         D. S.% Charney%null%1,         D. L.% Reich%null%1,         A. C.% Just%null%1,         E. P.% Bottinger%null%1,         A. W.% Charney%null%1,         B. S.% Glicksberg%null%1,         G.% Nadkarni%null%1,        couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,        Di%Wu%NULL%5,        Huilong%Chen%NULL%5,        Weiming%Yan%NULL%5,        Danlei%Yang%NULL%5,        Guang%Chen%NULL%5,        Ke%Ma%NULL%6,        Dong%Xu%NULL%7,        Haijing%Yu%NULL%5,        Hongwu%Wang%NULL%5,        Tao%Wang%NULL%0,        Wei%Guo%NULL%5,        Jia%Chen%NULL%5,        Chen%Ding%NULL%5,        Xiaoping%Zhang%NULL%5,        Jiaquan%Huang%NULL%5,        Meifang%Han%NULL%5,        Shusheng%Li%NULL%5,        Xiaoping%Luo%NULL%5,        Jianping%Zhao%NULL%0,        Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,         H.% Xia%null%1,         W.% Yang%null%1,         B.% Wang%null%0,         T.% Guo%null%1,         J.% Xiong%null%1,         Z.% Jiang%null%1,         Y.% Liu%null%0,         X.% Yan%null%1,         W.% Zhou%null%1,         L.% Ye%null%1,         B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>"Retrospective study of risk factors for severe SARS-Cov-2 infections in hospitalized adult patients"</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1, Peng%Wang%xref no email%1, Xingguang%Wang%xref no email%1, Guoqiang%Qie%xref no email%1, Mei%Meng%xref no email%1, Xiwen%Tong%xref no email%1, Xue%Bai%xref no email%1, Min%Ding%xref no email%1, Weiming%Liu%xref no email%1, Keke%Liu%xref no email%1, Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-28</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,         Ting%Yu%NULL%0,         Ronghui%Du%NULL%0,         Guohui%Fan%NULL%0,         Ying%Liu%NULL%0,         Zhibo%Liu%NULL%0,         Jie%Xiang%NULL%0,         Yeming%Wang%NULL%0,         Bin%Song%NULL%0,         Xiaoying%Gu%NULL%0,         Lulu%Guan%NULL%0,         Yuan%Wei%NULL%0,         Hui%Li%NULL%0,         Xudong%Wu%NULL%0,         Jiuyang%Xu%NULL%0,         Shengjin%Tu%NULL%0,         Yi%Zhang%NULL%0,         Hua%Chen%NULL%0,         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,         Xinsheng%Yan%NULL%1,         Qingkun%Fan%NULL%1,         Haiyan%Liu%NULL%1,         Xintian%Liu%NULL%1,         Zejin%Liu%NULL%1,         Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,         Li-Rong%Liang%NULL%0,         Cheng-Qing%Yang%NULL%0,         Wen%Wang%NULL%0,         Tan-Ze%Cao%NULL%0,         Ming%Li%NULL%0,         Guang-Yun%Guo%NULL%0,         Juan%Du%NULL%0,         Chun-Lan%Zheng%NULL%0,         Qi%Zhu%NULL%0,         Ming%Hu%NULL%0,         Xu-Yan%Li%NULL%0,         Peng%Peng%NULL%0,         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,         Wenlin%Cheng%NULL%1,         Lei%Yu%NULL%1,         Ya-Kun%Liu%NULL%1,         Xiaoyong%Hu%NULL%1,         Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,         Anna Lisa%Ridolfo%NULL%0,         Laura%Milazzo%NULL%0,         Letizia%Oreni%NULL%0,         Dario%Bernacchia%NULL%0,         Matteo%Siano%NULL%0,         Cecilia%Bonazzetti%NULL%0,         Alice%Covizzi%NULL%0,         Marco%Schiuma%NULL%0,         Matteo%Passerini%NULL%0,         Marco%Piscaglia%NULL%0,         Massimo%Coen%NULL%0,         Guido%Gubertini%NULL%0,         Giuliano%Rizzardini%NULL%0,         Chiara%Cogliati%NULL%0,         Anna Maria%Brambilla%NULL%0,         Riccardo%Colombo%NULL%0,         Antonio%Castelli%NULL%0,         Roberto%Rech%NULL%0,         Agostino%Riva%NULL%0,         Alessandro%Torre%NULL%0,         Luca%Meroni%NULL%0,         Stefano%Rusconi%NULL%0,         Spinello%Antinori%NULL%0,         Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,          A.% Russak%null%1,          J. K.% De Freitas%null%1,          A.% Lala%null%1,          R.% Miotto%null%1,          A.% Vaid%null%1,          K. W.% Johnson%null%1,          M.% Danieletto%null%1,          E.% Golden%null%1,          D.% Meyer%null%1,          M.% Singh%null%1,          S.% Somani%null%1,          S.% Manna%null%1,          U.% Nangia%null%1,          A.% Kapoor%null%1,          R.% O'Hagan%null%1,          P. F.% O'Reilly%null%1,          L. M.% Huckins%null%1,          P.% Glowe%null%1,          A.% Kia%null%1,          P.% Timsina%null%1,          R. M.% Freeman%null%1,          M. A.% Levin%null%1,          J.% Jhang%null%1,          A.% Firpo%null%1,          P.% Kovatch%null%1,          J.% Finkelstein%null%1,          J. A.% Aberg%null%1,          E.% Bagiella%null%1,          C. R.% Horowitz%null%1,          B.% Murphy%null%1,          Z. A.% Fayad%null%1,          J.% Narula%null%1,          E. J.% Nestler%null%1,          V.% Fuster%null%1,          C.% Cordon-Cardo%null%1,          D. S.% Charney%null%1,          D. L.% Reich%null%1,          A. C.% Just%null%1,          E. P.% Bottinger%null%1,          A. W.% Charney%null%1,          B. S.% Glicksberg%null%1,          G.% Nadkarni%null%1,         couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,         Di%Wu%NULL%5,         Huilong%Chen%NULL%5,         Weiming%Yan%NULL%5,         Danlei%Yang%NULL%5,         Guang%Chen%NULL%5,         Ke%Ma%NULL%6,         Dong%Xu%NULL%7,         Haijing%Yu%NULL%5,         Hongwu%Wang%NULL%5,         Tao%Wang%NULL%0,         Wei%Guo%NULL%5,         Jia%Chen%NULL%5,         Chen%Ding%NULL%5,         Xiaoping%Zhang%NULL%5,         Jiaquan%Huang%NULL%5,         Meifang%Han%NULL%5,         Shusheng%Li%NULL%5,         Xiaoping%Luo%NULL%5,         Jianping%Zhao%NULL%0,         Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,          H.% Xia%null%1,          W.% Yang%null%1,          B.% Wang%null%0,          T.% Guo%null%1,          J.% Xiong%null%1,          Z.% Jiang%null%1,          Y.% Liu%null%0,          X.% Yan%null%1,          W.% Zhou%null%1,          L.% Ye%null%1,          B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,  Peng%Wang%xref no email%1,  Xingguang%Wang%xref no email%1,  Guoqiang%Qie%xref no email%1,  Mei%Meng%xref no email%1,  Xiwen%Tong%xref no email%1,  Xue%Bai%xref no email%1,  Min%Ding%xref no email%1,  Weiming%Liu%xref no email%1,  Keke%Liu%xref no email%1,  Yufeng%Chu%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -786,7 +849,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -815,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -844,7 +907,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -873,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -902,7 +965,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -931,7 +994,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -960,7 +1023,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -989,7 +1052,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -1012,22 +1075,22 @@
         <v>43980.0</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
         <v>45</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="154">
   <si>
     <t>Doi</t>
   </si>
@@ -513,6 +513,60 @@
   </si>
   <si>
     <t>[Qingchun%Yao%xref no email%1,  Peng%Wang%xref no email%1,  Xingguang%Wang%xref no email%1,  Guoqiang%Qie%xref no email%1,  Mei%Meng%xref no email%1,  Xiwen%Tong%xref no email%1,  Xue%Bai%xref no email%1,  Min%Ding%xref no email%1,  Weiming%Liu%xref no email%1,  Keke%Liu%xref no email%1,  Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,          Ting%Yu%NULL%0,          Ronghui%Du%NULL%0,          Guohui%Fan%NULL%0,          Ying%Liu%NULL%0,          Zhibo%Liu%NULL%0,          Jie%Xiang%NULL%0,          Yeming%Wang%NULL%0,          Bin%Song%NULL%0,          Xiaoying%Gu%NULL%0,          Lulu%Guan%NULL%0,          Yuan%Wei%NULL%0,          Hui%Li%NULL%0,          Xudong%Wu%NULL%0,          Jiuyang%Xu%NULL%0,          Shengjin%Tu%NULL%0,          Yi%Zhang%NULL%0,          Hua%Chen%NULL%0,          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,          Xinsheng%Yan%NULL%1,          Qingkun%Fan%NULL%1,          Haiyan%Liu%NULL%1,          Xintian%Liu%NULL%1,          Zejin%Liu%NULL%1,          Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,          Li-Rong%Liang%NULL%0,          Cheng-Qing%Yang%NULL%0,          Wen%Wang%NULL%0,          Tan-Ze%Cao%NULL%0,          Ming%Li%NULL%0,          Guang-Yun%Guo%NULL%0,          Juan%Du%NULL%0,          Chun-Lan%Zheng%NULL%0,          Qi%Zhu%NULL%0,          Ming%Hu%NULL%0,          Xu-Yan%Li%NULL%0,          Peng%Peng%NULL%0,          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,          Wenlin%Cheng%NULL%1,          Lei%Yu%NULL%1,          Ya-Kun%Liu%NULL%1,          Xiaoyong%Hu%NULL%1,          Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,          Anna Lisa%Ridolfo%NULL%0,          Laura%Milazzo%NULL%0,          Letizia%Oreni%NULL%0,          Dario%Bernacchia%NULL%0,          Matteo%Siano%NULL%0,          Cecilia%Bonazzetti%NULL%0,          Alice%Covizzi%NULL%0,          Marco%Schiuma%NULL%0,          Matteo%Passerini%NULL%0,          Marco%Piscaglia%NULL%0,          Massimo%Coen%NULL%0,          Guido%Gubertini%NULL%0,          Giuliano%Rizzardini%NULL%0,          Chiara%Cogliati%NULL%0,          Anna Maria%Brambilla%NULL%0,          Riccardo%Colombo%NULL%0,          Antonio%Castelli%NULL%0,          Roberto%Rech%NULL%0,          Agostino%Riva%NULL%0,          Alessandro%Torre%NULL%0,          Luca%Meroni%NULL%0,          Stefano%Rusconi%NULL%0,          Spinello%Antinori%NULL%0,          Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,           A.% Russak%null%1,           J. K.% De Freitas%null%1,           A.% Lala%null%1,           R.% Miotto%null%1,           A.% Vaid%null%1,           K. W.% Johnson%null%1,           M.% Danieletto%null%1,           E.% Golden%null%1,           D.% Meyer%null%1,           M.% Singh%null%1,           S.% Somani%null%1,           S.% Manna%null%1,           U.% Nangia%null%1,           A.% Kapoor%null%1,           R.% O'Hagan%null%1,           P. F.% O'Reilly%null%1,           L. M.% Huckins%null%1,           P.% Glowe%null%1,           A.% Kia%null%1,           P.% Timsina%null%1,           R. M.% Freeman%null%1,           M. A.% Levin%null%1,           J.% Jhang%null%1,           A.% Firpo%null%1,           P.% Kovatch%null%1,           J.% Finkelstein%null%1,           J. A.% Aberg%null%1,           E.% Bagiella%null%1,           C. R.% Horowitz%null%1,           B.% Murphy%null%1,           Z. A.% Fayad%null%1,           J.% Narula%null%1,           E. J.% Nestler%null%1,           V.% Fuster%null%1,           C.% Cordon-Cardo%null%1,           D. S.% Charney%null%1,           D. L.% Reich%null%1,           A. C.% Just%null%1,           E. P.% Bottinger%null%1,           A. W.% Charney%null%1,           B. S.% Glicksberg%null%1,           G.% Nadkarni%null%1,          couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,          Di%Wu%NULL%5,          Huilong%Chen%NULL%5,          Weiming%Yan%NULL%5,          Danlei%Yang%NULL%5,          Guang%Chen%NULL%5,          Ke%Ma%NULL%6,          Dong%Xu%NULL%7,          Haijing%Yu%NULL%5,          Hongwu%Wang%NULL%5,          Tao%Wang%NULL%0,          Wei%Guo%NULL%5,          Jia%Chen%NULL%5,          Chen%Ding%NULL%5,          Xiaoping%Zhang%NULL%5,          Jiaquan%Huang%NULL%5,          Meifang%Han%NULL%5,          Shusheng%Li%NULL%5,          Xiaoping%Luo%NULL%5,          Jianping%Zhao%NULL%0,          Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,           H.% Xia%null%1,           W.% Yang%null%1,           B.% Wang%null%0,           T.% Guo%null%1,           J.% Xiong%null%1,           Z.% Jiang%null%1,           Y.% Liu%null%0,           X.% Yan%null%1,           W.% Zhou%null%1,           L.% Ye%null%1,           B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,   Peng%Wang%xref no email%1,   Xingguang%Wang%xref no email%1,   Guoqiang%Qie%xref no email%1,   Mei%Meng%xref no email%1,   Xiwen%Tong%xref no email%1,   Xue%Bai%xref no email%1,   Min%Ding%xref no email%1,   Weiming%Liu%xref no email%1,   Keke%Liu%xref no email%1,   Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,           Ting%Yu%NULL%0,           Ronghui%Du%NULL%0,           Guohui%Fan%NULL%0,           Ying%Liu%NULL%0,           Zhibo%Liu%NULL%0,           Jie%Xiang%NULL%0,           Yeming%Wang%NULL%0,           Bin%Song%NULL%0,           Xiaoying%Gu%NULL%0,           Lulu%Guan%NULL%0,           Yuan%Wei%NULL%0,           Hui%Li%NULL%0,           Xudong%Wu%NULL%0,           Jiuyang%Xu%NULL%0,           Shengjin%Tu%NULL%0,           Yi%Zhang%NULL%0,           Hua%Chen%NULL%0,           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,           Xinsheng%Yan%NULL%1,           Qingkun%Fan%NULL%1,           Haiyan%Liu%NULL%1,           Xintian%Liu%NULL%1,           Zejin%Liu%NULL%1,           Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,           Li-Rong%Liang%NULL%0,           Cheng-Qing%Yang%NULL%0,           Wen%Wang%NULL%0,           Tan-Ze%Cao%NULL%0,           Ming%Li%NULL%0,           Guang-Yun%Guo%NULL%0,           Juan%Du%NULL%0,           Chun-Lan%Zheng%NULL%0,           Qi%Zhu%NULL%0,           Ming%Hu%NULL%0,           Xu-Yan%Li%NULL%0,           Peng%Peng%NULL%0,           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%0,           Wenlin%Cheng%NULL%0,           Lei%Yu%NULL%0,           Ya-Kun%Liu%NULL%0,           Xiaoyong%Hu%NULL%0,           Qiang%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,           Anna Lisa%Ridolfo%NULL%0,           Laura%Milazzo%NULL%0,           Letizia%Oreni%NULL%0,           Dario%Bernacchia%NULL%0,           Matteo%Siano%NULL%0,           Cecilia%Bonazzetti%NULL%0,           Alice%Covizzi%NULL%0,           Marco%Schiuma%NULL%0,           Matteo%Passerini%NULL%0,           Marco%Piscaglia%NULL%0,           Massimo%Coen%NULL%0,           Guido%Gubertini%NULL%0,           Giuliano%Rizzardini%NULL%0,           Chiara%Cogliati%NULL%0,           Anna Maria%Brambilla%NULL%0,           Riccardo%Colombo%NULL%0,           Antonio%Castelli%NULL%0,           Roberto%Rech%NULL%0,           Agostino%Riva%NULL%0,           Alessandro%Torre%NULL%0,           Luca%Meroni%NULL%0,           Stefano%Rusconi%NULL%0,           Spinello%Antinori%NULL%0,           Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,            A.% Russak%null%1,            J. K.% De Freitas%null%1,            A.% Lala%null%1,            R.% Miotto%null%1,            A.% Vaid%null%1,            K. W.% Johnson%null%1,            M.% Danieletto%null%1,            E.% Golden%null%1,            D.% Meyer%null%1,            M.% Singh%null%1,            S.% Somani%null%1,            S.% Manna%null%1,            U.% Nangia%null%1,            A.% Kapoor%null%1,            R.% O'Hagan%null%1,            P. F.% O'Reilly%null%1,            L. M.% Huckins%null%1,            P.% Glowe%null%1,            A.% Kia%null%1,            P.% Timsina%null%1,            R. M.% Freeman%null%1,            M. A.% Levin%null%1,            J.% Jhang%null%1,            A.% Firpo%null%1,            P.% Kovatch%null%1,            J.% Finkelstein%null%1,            J. A.% Aberg%null%1,            E.% Bagiella%null%1,            C. R.% Horowitz%null%1,            B.% Murphy%null%1,            Z. A.% Fayad%null%1,            J.% Narula%null%1,            E. J.% Nestler%null%1,            V.% Fuster%null%1,            C.% Cordon-Cardo%null%1,            D. S.% Charney%null%1,            D. L.% Reich%null%1,            A. C.% Just%null%1,            E. P.% Bottinger%null%1,            A. W.% Charney%null%1,            B. S.% Glicksberg%null%1,            G.% Nadkarni%null%1,           couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,           Di%Wu%NULL%5,           Huilong%Chen%NULL%5,           Weiming%Yan%NULL%5,           Danlei%Yang%NULL%5,           Guang%Chen%NULL%5,           Ke%Ma%NULL%6,           Dong%Xu%NULL%7,           Haijing%Yu%NULL%5,           Hongwu%Wang%NULL%5,           Tao%Wang%NULL%0,           Wei%Guo%NULL%5,           Jia%Chen%NULL%5,           Chen%Ding%NULL%5,           Xiaoping%Zhang%NULL%5,           Jiaquan%Huang%NULL%5,           Meifang%Han%NULL%5,           Shusheng%Li%NULL%5,           Xiaoping%Luo%NULL%5,           Jianping%Zhao%NULL%0,           Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,            H.% Xia%null%1,            W.% Yang%null%1,            B.% Wang%null%0,            T.% Guo%null%1,            J.% Xiong%null%1,            Z.% Jiang%null%1,            Y.% Liu%null%0,            X.% Yan%null%0,            W.% Zhou%null%1,            L.% Ye%null%1,            B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,    Peng%Wang%xref no email%1,    Xingguang%Wang%xref no email%1,    Guoqiang%Qie%xref no email%1,    Mei%Meng%xref no email%1,    Xiwen%Tong%xref no email%1,    Xue%Bai%xref no email%1,    Min%Ding%xref no email%1,    Weiming%Liu%xref no email%1,    Keke%Liu%xref no email%1,    Yufeng%Chu%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -849,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -878,7 +932,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -907,7 +961,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -936,7 +990,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -965,7 +1019,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -994,7 +1048,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -1023,7 +1077,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1052,7 +1106,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -1081,7 +1135,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="172">
   <si>
     <t>Doi</t>
   </si>
@@ -567,6 +567,60 @@
   </si>
   <si>
     <t>[Qingchun%Yao%xref no email%1,    Peng%Wang%xref no email%1,    Xingguang%Wang%xref no email%1,    Guoqiang%Qie%xref no email%1,    Mei%Meng%xref no email%1,    Xiwen%Tong%xref no email%1,    Xue%Bai%xref no email%1,    Min%Ding%xref no email%1,    Weiming%Liu%xref no email%1,    Keke%Liu%xref no email%1,    Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,            Ting%Yu%NULL%0,            Ronghui%Du%NULL%0,            Guohui%Fan%NULL%0,            Ying%Liu%NULL%0,            Zhibo%Liu%NULL%0,            Jie%Xiang%NULL%0,            Yeming%Wang%NULL%0,            Bin%Song%NULL%0,            Xiaoying%Gu%NULL%0,            Lulu%Guan%NULL%0,            Yuan%Wei%NULL%0,            Hui%Li%NULL%0,            Xudong%Wu%NULL%0,            Jiuyang%Xu%NULL%0,            Shengjin%Tu%NULL%0,            Yi%Zhang%NULL%0,            Hua%Chen%NULL%0,            Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,            Xinsheng%Yan%NULL%1,            Qingkun%Fan%NULL%1,            Haiyan%Liu%NULL%1,            Xintian%Liu%NULL%1,            Zejin%Liu%NULL%1,            Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,            Li-Rong%Liang%NULL%0,            Cheng-Qing%Yang%NULL%0,            Wen%Wang%NULL%0,            Tan-Ze%Cao%NULL%0,            Ming%Li%NULL%0,            Guang-Yun%Guo%NULL%0,            Juan%Du%NULL%0,            Chun-Lan%Zheng%NULL%0,            Qi%Zhu%NULL%0,            Ming%Hu%NULL%0,            Xu-Yan%Li%NULL%0,            Peng%Peng%NULL%0,            Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,            Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,            Wenlin%Cheng%NULL%1,            Lei%Yu%NULL%1,            Ya-Kun%Liu%NULL%1,            Xiaoyong%Hu%NULL%1,            Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,            Anna Lisa%Ridolfo%NULL%0,            Laura%Milazzo%NULL%0,            Letizia%Oreni%NULL%0,            Dario%Bernacchia%NULL%0,            Matteo%Siano%NULL%0,            Cecilia%Bonazzetti%NULL%0,            Alice%Covizzi%NULL%0,            Marco%Schiuma%NULL%0,            Matteo%Passerini%NULL%0,            Marco%Piscaglia%NULL%0,            Massimo%Coen%NULL%0,            Guido%Gubertini%NULL%0,            Giuliano%Rizzardini%NULL%0,            Chiara%Cogliati%NULL%0,            Anna Maria%Brambilla%NULL%0,            Riccardo%Colombo%NULL%0,            Antonio%Castelli%NULL%0,            Roberto%Rech%NULL%0,            Agostino%Riva%NULL%0,            Alessandro%Torre%NULL%0,            Luca%Meroni%NULL%0,            Stefano%Rusconi%NULL%0,            Spinello%Antinori%NULL%0,            Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,             A.% Russak%null%1,             J. K.% De Freitas%null%1,             A.% Lala%null%1,             R.% Miotto%null%1,             A.% Vaid%null%1,             K. W.% Johnson%null%1,             M.% Danieletto%null%1,             E.% Golden%null%1,             D.% Meyer%null%1,             M.% Singh%null%1,             S.% Somani%null%1,             S.% Manna%null%1,             U.% Nangia%null%1,             A.% Kapoor%null%1,             R.% O'Hagan%null%1,             P. F.% O'Reilly%null%1,             L. M.% Huckins%null%1,             P.% Glowe%null%1,             A.% Kia%null%1,             P.% Timsina%null%1,             R. M.% Freeman%null%1,             M. A.% Levin%null%1,             J.% Jhang%null%1,             A.% Firpo%null%1,             P.% Kovatch%null%1,             J.% Finkelstein%null%1,             J. A.% Aberg%null%1,             E.% Bagiella%null%1,             C. R.% Horowitz%null%1,             B.% Murphy%null%1,             Z. A.% Fayad%null%1,             J.% Narula%null%1,             E. J.% Nestler%null%1,             V.% Fuster%null%1,             C.% Cordon-Cardo%null%1,             D. S.% Charney%null%1,             D. L.% Reich%null%1,             A. C.% Just%null%1,             E. P.% Bottinger%null%1,             A. W.% Charney%null%1,             B. S.% Glicksberg%null%1,             G.% Nadkarni%null%1,            couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,            Di%Wu%NULL%5,            Huilong%Chen%NULL%5,            Weiming%Yan%NULL%5,            Danlei%Yang%NULL%5,            Guang%Chen%NULL%5,            Ke%Ma%NULL%6,            Dong%Xu%NULL%7,            Haijing%Yu%NULL%5,            Hongwu%Wang%NULL%5,            Tao%Wang%NULL%0,            Wei%Guo%NULL%5,            Jia%Chen%NULL%5,            Chen%Ding%NULL%5,            Xiaoping%Zhang%NULL%5,            Jiaquan%Huang%NULL%5,            Meifang%Han%NULL%5,            Shusheng%Li%NULL%5,            Xiaoping%Luo%NULL%5,            Jianping%Zhao%NULL%0,            Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,             H.% Xia%null%1,             W.% Yang%null%1,             B.% Wang%null%0,             T.% Guo%null%1,             J.% Xiong%null%1,             Z.% Jiang%null%1,             Y.% Liu%null%0,             X.% Yan%null%1,             W.% Zhou%null%1,             L.% Ye%null%1,             B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,     Peng%Wang%xref no email%1,     Xingguang%Wang%xref no email%1,     Guoqiang%Qie%xref no email%1,     Mei%Meng%xref no email%1,     Xiwen%Tong%xref no email%1,     Xue%Bai%xref no email%1,     Min%Ding%xref no email%1,     Weiming%Liu%xref no email%1,     Keke%Liu%xref no email%1,     Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,             Ting%Yu%NULL%0,             Ronghui%Du%NULL%0,             Guohui%Fan%NULL%0,             Ying%Liu%NULL%0,             Zhibo%Liu%NULL%0,             Jie%Xiang%NULL%0,             Yeming%Wang%NULL%0,             Bin%Song%NULL%0,             Xiaoying%Gu%NULL%0,             Lulu%Guan%NULL%0,             Yuan%Wei%NULL%0,             Hui%Li%NULL%0,             Xudong%Wu%NULL%0,             Jiuyang%Xu%NULL%0,             Shengjin%Tu%NULL%0,             Yi%Zhang%NULL%0,             Hua%Chen%NULL%0,             Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,             Xinsheng%Yan%NULL%1,             Qingkun%Fan%NULL%1,             Haiyan%Liu%NULL%1,             Xintian%Liu%NULL%1,             Zejin%Liu%NULL%1,             Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,             Li-Rong%Liang%NULL%0,             Cheng-Qing%Yang%NULL%0,             Wen%Wang%NULL%0,             Tan-Ze%Cao%NULL%0,             Ming%Li%NULL%0,             Guang-Yun%Guo%NULL%0,             Juan%Du%NULL%0,             Chun-Lan%Zheng%NULL%0,             Qi%Zhu%NULL%0,             Ming%Hu%NULL%0,             Xu-Yan%Li%NULL%0,             Peng%Peng%NULL%0,             Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,             Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,             Wenlin%Cheng%NULL%1,             Lei%Yu%NULL%1,             Ya-Kun%Liu%NULL%1,             Xiaoyong%Hu%NULL%1,             Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,             Anna Lisa%Ridolfo%NULL%0,             Laura%Milazzo%NULL%0,             Letizia%Oreni%NULL%0,             Dario%Bernacchia%NULL%0,             Matteo%Siano%NULL%0,             Cecilia%Bonazzetti%NULL%0,             Alice%Covizzi%NULL%0,             Marco%Schiuma%NULL%0,             Matteo%Passerini%NULL%0,             Marco%Piscaglia%NULL%0,             Massimo%Coen%NULL%0,             Guido%Gubertini%NULL%0,             Giuliano%Rizzardini%NULL%0,             Chiara%Cogliati%NULL%0,             Anna Maria%Brambilla%NULL%0,             Riccardo%Colombo%NULL%0,             Antonio%Castelli%NULL%0,             Roberto%Rech%NULL%0,             Agostino%Riva%NULL%0,             Alessandro%Torre%NULL%0,             Luca%Meroni%NULL%0,             Stefano%Rusconi%NULL%0,             Spinello%Antinori%NULL%0,             Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,              A.% Russak%null%1,              J. K.% De Freitas%null%1,              A.% Lala%null%1,              R.% Miotto%null%1,              A.% Vaid%null%1,              K. W.% Johnson%null%1,              M.% Danieletto%null%1,              E.% Golden%null%1,              D.% Meyer%null%1,              M.% Singh%null%1,              S.% Somani%null%1,              S.% Manna%null%1,              U.% Nangia%null%1,              A.% Kapoor%null%1,              R.% O'Hagan%null%1,              P. F.% O'Reilly%null%1,              L. M.% Huckins%null%1,              P.% Glowe%null%1,              A.% Kia%null%1,              P.% Timsina%null%1,              R. M.% Freeman%null%1,              M. A.% Levin%null%1,              J.% Jhang%null%1,              A.% Firpo%null%1,              P.% Kovatch%null%1,              J.% Finkelstein%null%1,              J. A.% Aberg%null%1,              E.% Bagiella%null%1,              C. R.% Horowitz%null%1,              B.% Murphy%null%1,              Z. A.% Fayad%null%1,              J.% Narula%null%1,              E. J.% Nestler%null%1,              V.% Fuster%null%1,              C.% Cordon-Cardo%null%1,              D. S.% Charney%null%1,              D. L.% Reich%null%1,              A. C.% Just%null%1,              E. P.% Bottinger%null%1,              A. W.% Charney%null%1,              B. S.% Glicksberg%null%1,              G.% Nadkarni%null%1,             couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,             Di%Wu%NULL%5,             Huilong%Chen%NULL%5,             Weiming%Yan%NULL%5,             Danlei%Yang%NULL%5,             Guang%Chen%NULL%5,             Ke%Ma%NULL%6,             Dong%Xu%NULL%7,             Haijing%Yu%NULL%5,             Hongwu%Wang%NULL%5,             Tao%Wang%NULL%0,             Wei%Guo%NULL%5,             Jia%Chen%NULL%5,             Chen%Ding%NULL%5,             Xiaoping%Zhang%NULL%5,             Jiaquan%Huang%NULL%5,             Meifang%Han%NULL%5,             Shusheng%Li%NULL%5,             Xiaoping%Luo%NULL%5,             Jianping%Zhao%NULL%0,             Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,              H.% Xia%null%1,              W.% Yang%null%1,              B.% Wang%null%0,              T.% Guo%null%1,              J.% Xiong%null%1,              Z.% Jiang%null%1,              Y.% Liu%null%0,              X.% Yan%null%1,              W.% Zhou%null%1,              L.% Ye%null%1,              B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,      Peng%Wang%xref no email%1,      Xingguang%Wang%xref no email%1,      Guoqiang%Qie%xref no email%1,      Mei%Meng%xref no email%1,      Xiwen%Tong%xref no email%1,      Xue%Bai%xref no email%1,      Min%Ding%xref no email%1,      Weiming%Liu%xref no email%1,      Keke%Liu%xref no email%1,      Yufeng%Chu%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -903,7 +957,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -932,7 +986,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -961,7 +1015,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -990,7 +1044,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1019,7 +1073,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1048,7 +1102,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -1077,7 +1131,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1106,7 +1160,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -1135,7 +1189,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="182">
   <si>
     <t>Doi</t>
   </si>
@@ -621,6 +621,36 @@
   </si>
   <si>
     <t>[Qingchun%Yao%xref no email%1,      Peng%Wang%xref no email%1,      Xingguang%Wang%xref no email%1,      Guoqiang%Qie%xref no email%1,      Mei%Meng%xref no email%1,      Xiwen%Tong%xref no email%1,      Xue%Bai%xref no email%1,      Min%Ding%xref no email%1,      Weiming%Liu%xref no email%1,      Keke%Liu%xref no email%1,      Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,              Ting%Yu%NULL%0,              Ronghui%Du%NULL%0,              Guohui%Fan%NULL%0,              Ying%Liu%NULL%0,              Zhibo%Liu%NULL%0,              Jie%Xiang%NULL%0,              Yeming%Wang%NULL%0,              Bin%Song%NULL%0,              Xiaoying%Gu%NULL%0,              Lulu%Guan%NULL%0,              Yuan%Wei%NULL%0,              Hui%Li%NULL%0,              Xudong%Wu%NULL%0,              Jiuyang%Xu%NULL%0,              Shengjin%Tu%NULL%0,              Yi%Zhang%NULL%0,              Hua%Chen%NULL%0,              Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,              Xinsheng%Yan%NULL%1,              Qingkun%Fan%NULL%1,              Haiyan%Liu%NULL%1,              Xintian%Liu%NULL%1,              Zejin%Liu%NULL%1,              Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,              Li-Rong%Liang%NULL%0,              Cheng-Qing%Yang%NULL%0,              Wen%Wang%NULL%0,              Tan-Ze%Cao%NULL%0,              Ming%Li%NULL%0,              Guang-Yun%Guo%NULL%0,              Juan%Du%NULL%0,              Chun-Lan%Zheng%NULL%0,              Qi%Zhu%NULL%0,              Ming%Hu%NULL%0,              Xu-Yan%Li%NULL%0,              Peng%Peng%NULL%0,              Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,              Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,              Wenlin%Cheng%NULL%1,              Lei%Yu%NULL%1,              Ya-Kun%Liu%NULL%1,              Xiaoyong%Hu%NULL%1,              Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,              Anna Lisa%Ridolfo%NULL%0,              Laura%Milazzo%NULL%0,              Letizia%Oreni%NULL%0,              Dario%Bernacchia%NULL%0,              Matteo%Siano%NULL%0,              Cecilia%Bonazzetti%NULL%0,              Alice%Covizzi%NULL%0,              Marco%Schiuma%NULL%0,              Matteo%Passerini%NULL%0,              Marco%Piscaglia%NULL%0,              Massimo%Coen%NULL%0,              Guido%Gubertini%NULL%0,              Giuliano%Rizzardini%NULL%0,              Chiara%Cogliati%NULL%0,              Anna Maria%Brambilla%NULL%0,              Riccardo%Colombo%NULL%0,              Antonio%Castelli%NULL%0,              Roberto%Rech%NULL%0,              Agostino%Riva%NULL%0,              Alessandro%Torre%NULL%0,              Luca%Meroni%NULL%0,              Stefano%Rusconi%NULL%0,              Spinello%Antinori%NULL%0,              Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,               A.% Russak%null%1,               J. K.% De Freitas%null%1,               A.% Lala%null%1,               R.% Miotto%null%1,               A.% Vaid%null%1,               K. W.% Johnson%null%1,               M.% Danieletto%null%1,               E.% Golden%null%1,               D.% Meyer%null%1,               M.% Singh%null%1,               S.% Somani%null%1,               S.% Manna%null%1,               U.% Nangia%null%1,               A.% Kapoor%null%1,               R.% O'Hagan%null%1,               P. F.% O'Reilly%null%1,               L. M.% Huckins%null%1,               P.% Glowe%null%1,               A.% Kia%null%1,               P.% Timsina%null%1,               R. M.% Freeman%null%1,               M. A.% Levin%null%1,               J.% Jhang%null%1,               A.% Firpo%null%1,               P.% Kovatch%null%1,               J.% Finkelstein%null%1,               J. A.% Aberg%null%1,               E.% Bagiella%null%1,               C. R.% Horowitz%null%1,               B.% Murphy%null%1,               Z. A.% Fayad%null%1,               J.% Narula%null%1,               E. J.% Nestler%null%1,               V.% Fuster%null%1,               C.% Cordon-Cardo%null%1,               D. S.% Charney%null%1,               D. L.% Reich%null%1,               A. C.% Just%null%1,               E. P.% Bottinger%null%1,               A. W.% Charney%null%1,               B. S.% Glicksberg%null%1,               G.% Nadkarni%null%1,              couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,              Di%Wu%NULL%5,              Huilong%Chen%NULL%5,              Weiming%Yan%NULL%5,              Danlei%Yang%NULL%5,              Guang%Chen%NULL%5,              Ke%Ma%NULL%6,              Dong%Xu%NULL%7,              Haijing%Yu%NULL%5,              Hongwu%Wang%NULL%5,              Tao%Wang%NULL%0,              Wei%Guo%NULL%5,              Jia%Chen%NULL%5,              Chen%Ding%NULL%5,              Xiaoping%Zhang%NULL%5,              Jiaquan%Huang%NULL%5,              Meifang%Han%NULL%5,              Shusheng%Li%NULL%5,              Xiaoping%Luo%NULL%5,              Jianping%Zhao%NULL%0,              Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,               H.% Xia%null%1,               W.% Yang%null%1,               B.% Wang%null%0,               T.% Guo%null%1,               J.% Xiong%null%1,               Z.% Jiang%null%1,               Y.% Liu%null%0,               X.% Yan%null%1,               W.% Zhou%null%1,               L.% Ye%null%1,               B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,       Peng%Wang%xref no email%1,       Xingguang%Wang%xref no email%1,       Guoqiang%Qie%xref no email%1,       Mei%Meng%xref no email%1,       Xiwen%Tong%xref no email%1,       Xue%Bai%xref no email%1,       Min%Ding%xref no email%1,       Weiming%Liu%xref no email%1,       Keke%Liu%xref no email%1,       Yufeng%Chu%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -957,7 +987,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -986,7 +1016,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1015,7 +1045,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1044,7 +1074,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1073,7 +1103,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1102,13 +1132,13 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="H7" t="s">
         <v>53</v>
@@ -1131,7 +1161,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1160,13 +1190,13 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
@@ -1189,7 +1219,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="191">
   <si>
     <t>Doi</t>
   </si>
@@ -651,6 +651,33 @@
   </si>
   <si>
     <t>[Qingchun%Yao%xref no email%1,       Peng%Wang%xref no email%1,       Xingguang%Wang%xref no email%1,       Guoqiang%Qie%xref no email%1,       Mei%Meng%xref no email%1,       Xiwen%Tong%xref no email%1,       Xue%Bai%xref no email%1,       Min%Ding%xref no email%1,       Weiming%Liu%xref no email%1,       Keke%Liu%xref no email%1,       Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,               Ting%Yu%NULL%0,               Ronghui%Du%NULL%0,               Guohui%Fan%NULL%0,               Ying%Liu%NULL%0,               Zhibo%Liu%NULL%0,               Jie%Xiang%NULL%0,               Yeming%Wang%NULL%0,               Bin%Song%NULL%0,               Xiaoying%Gu%NULL%0,               Lulu%Guan%NULL%0,               Yuan%Wei%NULL%0,               Hui%Li%NULL%0,               Xudong%Wu%NULL%0,               Jiuyang%Xu%NULL%0,               Shengjin%Tu%NULL%0,               Yi%Zhang%NULL%0,               Hua%Chen%NULL%0,               Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,               Xinsheng%Yan%NULL%1,               Qingkun%Fan%NULL%1,               Haiyan%Liu%NULL%1,               Xintian%Liu%NULL%1,               Zejin%Liu%NULL%1,               Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,               Li-Rong%Liang%NULL%0,               Cheng-Qing%Yang%NULL%0,               Wen%Wang%NULL%0,               Tan-Ze%Cao%NULL%0,               Ming%Li%NULL%0,               Guang-Yun%Guo%NULL%0,               Juan%Du%NULL%0,               Chun-Lan%Zheng%NULL%0,               Qi%Zhu%NULL%0,               Ming%Hu%NULL%0,               Xu-Yan%Li%NULL%0,               Peng%Peng%NULL%0,               Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,               Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,               Wenlin%Cheng%NULL%1,               Lei%Yu%NULL%1,               Ya-Kun%Liu%NULL%1,               Xiaoyong%Hu%NULL%1,               Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,               Anna Lisa%Ridolfo%NULL%0,               Laura%Milazzo%NULL%0,               Letizia%Oreni%NULL%0,               Dario%Bernacchia%NULL%0,               Matteo%Siano%NULL%0,               Cecilia%Bonazzetti%NULL%0,               Alice%Covizzi%NULL%0,               Marco%Schiuma%NULL%0,               Matteo%Passerini%NULL%0,               Marco%Piscaglia%NULL%0,               Massimo%Coen%NULL%0,               Guido%Gubertini%NULL%0,               Giuliano%Rizzardini%NULL%0,               Chiara%Cogliati%NULL%0,               Anna Maria%Brambilla%NULL%0,               Riccardo%Colombo%NULL%0,               Antonio%Castelli%NULL%0,               Roberto%Rech%NULL%0,               Agostino%Riva%NULL%0,               Alessandro%Torre%NULL%0,               Luca%Meroni%NULL%0,               Stefano%Rusconi%NULL%0,               Spinello%Antinori%NULL%0,               Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                A.% Russak%null%1,                J. K.% De Freitas%null%1,                A.% Lala%null%1,                R.% Miotto%null%1,                A.% Vaid%null%1,                K. W.% Johnson%null%1,                M.% Danieletto%null%1,                E.% Golden%null%1,                D.% Meyer%null%1,                M.% Singh%null%1,                S.% Somani%null%1,                S.% Manna%null%1,                U.% Nangia%null%1,                A.% Kapoor%null%1,                R.% O'Hagan%null%1,                P. F.% O'Reilly%null%1,                L. M.% Huckins%null%1,                P.% Glowe%null%1,                A.% Kia%null%1,                P.% Timsina%null%1,                R. M.% Freeman%null%1,                M. A.% Levin%null%1,                J.% Jhang%null%1,                A.% Firpo%null%1,                P.% Kovatch%null%1,                J.% Finkelstein%null%1,                J. A.% Aberg%null%1,                E.% Bagiella%null%1,                C. R.% Horowitz%null%1,                B.% Murphy%null%1,                Z. A.% Fayad%null%1,                J.% Narula%null%1,                E. J.% Nestler%null%1,                V.% Fuster%null%1,                C.% Cordon-Cardo%null%1,                D. S.% Charney%null%1,                D. L.% Reich%null%1,                A. C.% Just%null%1,                E. P.% Bottinger%null%1,                A. W.% Charney%null%1,                B. S.% Glicksberg%null%1,                G.% Nadkarni%null%1,               couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,               Di%Wu%NULL%5,               Huilong%Chen%NULL%5,               Weiming%Yan%NULL%5,               Danlei%Yang%NULL%5,               Guang%Chen%NULL%5,               Ke%Ma%NULL%6,               Dong%Xu%NULL%7,               Haijing%Yu%NULL%5,               Hongwu%Wang%NULL%5,               Tao%Wang%NULL%0,               Wei%Guo%NULL%5,               Jia%Chen%NULL%5,               Chen%Ding%NULL%5,               Xiaoping%Zhang%NULL%5,               Jiaquan%Huang%NULL%5,               Meifang%Han%NULL%5,               Shusheng%Li%NULL%5,               Xiaoping%Luo%NULL%5,               Jianping%Zhao%NULL%0,               Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                H.% Xia%null%1,                W.% Yang%null%1,                B.% Wang%null%0,                T.% Guo%null%1,                J.% Xiong%null%1,                Z.% Jiang%null%1,                Y.% Liu%null%0,                X.% Yan%null%1,                W.% Zhou%null%1,                L.% Ye%null%1,                B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,        Peng%Wang%xref no email%1,        Xingguang%Wang%xref no email%1,        Guoqiang%Qie%xref no email%1,        Mei%Meng%xref no email%1,        Xiwen%Tong%xref no email%1,        Xue%Bai%xref no email%1,        Min%Ding%xref no email%1,        Weiming%Liu%xref no email%1,        Keke%Liu%xref no email%1,        Yufeng%Chu%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1014,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1016,7 +1043,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1045,7 +1072,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1074,7 +1101,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1103,7 +1130,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1132,7 +1159,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1161,7 +1188,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1190,7 +1217,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1219,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="209">
   <si>
     <t>Doi</t>
   </si>
@@ -678,6 +678,60 @@
   </si>
   <si>
     <t>[Qingchun%Yao%xref no email%1,        Peng%Wang%xref no email%1,        Xingguang%Wang%xref no email%1,        Guoqiang%Qie%xref no email%1,        Mei%Meng%xref no email%1,        Xiwen%Tong%xref no email%1,        Xue%Bai%xref no email%1,        Min%Ding%xref no email%1,        Weiming%Liu%xref no email%1,        Keke%Liu%xref no email%1,        Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                Ting%Yu%NULL%0,                Ronghui%Du%NULL%0,                Guohui%Fan%NULL%0,                Ying%Liu%NULL%0,                Zhibo%Liu%NULL%0,                Jie%Xiang%NULL%0,                Yeming%Wang%NULL%0,                Bin%Song%NULL%0,                Xiaoying%Gu%NULL%0,                Lulu%Guan%NULL%0,                Yuan%Wei%NULL%0,                Hui%Li%NULL%0,                Xudong%Wu%NULL%0,                Jiuyang%Xu%NULL%0,                Shengjin%Tu%NULL%0,                Yi%Zhang%NULL%0,                Hua%Chen%NULL%0,                Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                Xinsheng%Yan%NULL%1,                Qingkun%Fan%NULL%1,                Haiyan%Liu%NULL%1,                Xintian%Liu%NULL%1,                Zejin%Liu%NULL%1,                Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                Li-Rong%Liang%NULL%0,                Cheng-Qing%Yang%NULL%0,                Wen%Wang%NULL%0,                Tan-Ze%Cao%NULL%0,                Ming%Li%NULL%0,                Guang-Yun%Guo%NULL%0,                Juan%Du%NULL%0,                Chun-Lan%Zheng%NULL%0,                Qi%Zhu%NULL%0,                Ming%Hu%NULL%0,                Xu-Yan%Li%NULL%0,                Peng%Peng%NULL%0,                Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                Wenlin%Cheng%NULL%1,                Lei%Yu%NULL%1,                Ya-Kun%Liu%NULL%1,                Xiaoyong%Hu%NULL%1,                Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                Anna Lisa%Ridolfo%NULL%0,                Laura%Milazzo%NULL%0,                Letizia%Oreni%NULL%0,                Dario%Bernacchia%NULL%0,                Matteo%Siano%NULL%0,                Cecilia%Bonazzetti%NULL%0,                Alice%Covizzi%NULL%0,                Marco%Schiuma%NULL%0,                Matteo%Passerini%NULL%0,                Marco%Piscaglia%NULL%0,                Massimo%Coen%NULL%0,                Guido%Gubertini%NULL%0,                Giuliano%Rizzardini%NULL%0,                Chiara%Cogliati%NULL%0,                Anna Maria%Brambilla%NULL%0,                Riccardo%Colombo%NULL%0,                Antonio%Castelli%NULL%0,                Roberto%Rech%NULL%0,                Agostino%Riva%NULL%0,                Alessandro%Torre%NULL%0,                Luca%Meroni%NULL%0,                Stefano%Rusconi%NULL%0,                Spinello%Antinori%NULL%0,                Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                 A.% Russak%null%1,                 J. K.% De Freitas%null%1,                 A.% Lala%null%1,                 R.% Miotto%null%1,                 A.% Vaid%null%1,                 K. W.% Johnson%null%1,                 M.% Danieletto%null%1,                 E.% Golden%null%1,                 D.% Meyer%null%1,                 M.% Singh%null%1,                 S.% Somani%null%1,                 S.% Manna%null%1,                 U.% Nangia%null%1,                 A.% Kapoor%null%1,                 R.% O'Hagan%null%1,                 P. F.% O'Reilly%null%1,                 L. M.% Huckins%null%1,                 P.% Glowe%null%1,                 A.% Kia%null%1,                 P.% Timsina%null%1,                 R. M.% Freeman%null%1,                 M. A.% Levin%null%1,                 J.% Jhang%null%1,                 A.% Firpo%null%1,                 P.% Kovatch%null%1,                 J.% Finkelstein%null%1,                 J. A.% Aberg%null%1,                 E.% Bagiella%null%1,                 C. R.% Horowitz%null%1,                 B.% Murphy%null%1,                 Z. A.% Fayad%null%1,                 J.% Narula%null%1,                 E. J.% Nestler%null%1,                 V.% Fuster%null%1,                 C.% Cordon-Cardo%null%1,                 D. S.% Charney%null%1,                 D. L.% Reich%null%1,                 A. C.% Just%null%1,                 E. P.% Bottinger%null%1,                 A. W.% Charney%null%1,                 B. S.% Glicksberg%null%1,                 G.% Nadkarni%null%1,                couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                Di%Wu%NULL%5,                Huilong%Chen%NULL%5,                Weiming%Yan%NULL%5,                Danlei%Yang%NULL%5,                Guang%Chen%NULL%5,                Ke%Ma%NULL%6,                Dong%Xu%NULL%7,                Haijing%Yu%NULL%5,                Hongwu%Wang%NULL%5,                Tao%Wang%NULL%0,                Wei%Guo%NULL%5,                Jia%Chen%NULL%5,                Chen%Ding%NULL%5,                Xiaoping%Zhang%NULL%5,                Jiaquan%Huang%NULL%5,                Meifang%Han%NULL%5,                Shusheng%Li%NULL%5,                Xiaoping%Luo%NULL%5,                Jianping%Zhao%NULL%0,                Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                 H.% Xia%null%1,                 W.% Yang%null%1,                 B.% Wang%null%0,                 T.% Guo%null%1,                 J.% Xiong%null%1,                 Z.% Jiang%null%1,                 Y.% Liu%null%0,                 X.% Yan%null%1,                 W.% Zhou%null%1,                 L.% Ye%null%1,                 B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,         Peng%Wang%xref no email%1,         Xingguang%Wang%xref no email%1,         Guoqiang%Qie%xref no email%1,         Mei%Meng%xref no email%1,         Xiwen%Tong%xref no email%1,         Xue%Bai%xref no email%1,         Min%Ding%xref no email%1,         Weiming%Liu%xref no email%1,         Keke%Liu%xref no email%1,         Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                 Ting%Yu%NULL%0,                 Ronghui%Du%NULL%0,                 Guohui%Fan%NULL%0,                 Ying%Liu%NULL%0,                 Zhibo%Liu%NULL%0,                 Jie%Xiang%NULL%0,                 Yeming%Wang%NULL%0,                 Bin%Song%NULL%0,                 Xiaoying%Gu%NULL%0,                 Lulu%Guan%NULL%0,                 Yuan%Wei%NULL%0,                 Hui%Li%NULL%0,                 Xudong%Wu%NULL%0,                 Jiuyang%Xu%NULL%0,                 Shengjin%Tu%NULL%0,                 Yi%Zhang%NULL%0,                 Hua%Chen%NULL%0,                 Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                 Xinsheng%Yan%NULL%1,                 Qingkun%Fan%NULL%1,                 Haiyan%Liu%NULL%1,                 Xintian%Liu%NULL%1,                 Zejin%Liu%NULL%1,                 Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                 Li-Rong%Liang%NULL%0,                 Cheng-Qing%Yang%NULL%0,                 Wen%Wang%NULL%0,                 Tan-Ze%Cao%NULL%0,                 Ming%Li%NULL%0,                 Guang-Yun%Guo%NULL%0,                 Juan%Du%NULL%0,                 Chun-Lan%Zheng%NULL%0,                 Qi%Zhu%NULL%0,                 Ming%Hu%NULL%0,                 Xu-Yan%Li%NULL%0,                 Peng%Peng%NULL%0,                 Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                 Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                 Wenlin%Cheng%NULL%1,                 Lei%Yu%NULL%1,                 Ya-Kun%Liu%NULL%1,                 Xiaoyong%Hu%NULL%1,                 Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                 Anna Lisa%Ridolfo%NULL%0,                 Laura%Milazzo%NULL%0,                 Letizia%Oreni%NULL%0,                 Dario%Bernacchia%NULL%0,                 Matteo%Siano%NULL%0,                 Cecilia%Bonazzetti%NULL%0,                 Alice%Covizzi%NULL%0,                 Marco%Schiuma%NULL%0,                 Matteo%Passerini%NULL%0,                 Marco%Piscaglia%NULL%0,                 Massimo%Coen%NULL%0,                 Guido%Gubertini%NULL%0,                 Giuliano%Rizzardini%NULL%0,                 Chiara%Cogliati%NULL%0,                 Anna Maria%Brambilla%NULL%0,                 Riccardo%Colombo%NULL%0,                 Antonio%Castelli%NULL%0,                 Roberto%Rech%NULL%0,                 Agostino%Riva%NULL%0,                 Alessandro%Torre%NULL%0,                 Luca%Meroni%NULL%0,                 Stefano%Rusconi%NULL%0,                 Spinello%Antinori%NULL%0,                 Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                  A.% Russak%null%1,                  J. K.% De Freitas%null%1,                  A.% Lala%null%1,                  R.% Miotto%null%1,                  A.% Vaid%null%1,                  K. W.% Johnson%null%1,                  M.% Danieletto%null%1,                  E.% Golden%null%1,                  D.% Meyer%null%1,                  M.% Singh%null%1,                  S.% Somani%null%1,                  S.% Manna%null%1,                  U.% Nangia%null%1,                  A.% Kapoor%null%1,                  R.% O'Hagan%null%1,                  P. F.% O'Reilly%null%1,                  L. M.% Huckins%null%1,                  P.% Glowe%null%1,                  A.% Kia%null%1,                  P.% Timsina%null%1,                  R. M.% Freeman%null%1,                  M. A.% Levin%null%1,                  J.% Jhang%null%1,                  A.% Firpo%null%1,                  P.% Kovatch%null%1,                  J.% Finkelstein%null%1,                  J. A.% Aberg%null%1,                  E.% Bagiella%null%1,                  C. R.% Horowitz%null%1,                  B.% Murphy%null%1,                  Z. A.% Fayad%null%1,                  J.% Narula%null%1,                  E. J.% Nestler%null%1,                  V.% Fuster%null%1,                  C.% Cordon-Cardo%null%1,                  D. S.% Charney%null%1,                  D. L.% Reich%null%1,                  A. C.% Just%null%1,                  E. P.% Bottinger%null%1,                  A. W.% Charney%null%1,                  B. S.% Glicksberg%null%1,                  G.% Nadkarni%null%1,                 couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                 Di%Wu%NULL%5,                 Huilong%Chen%NULL%5,                 Weiming%Yan%NULL%5,                 Danlei%Yang%NULL%5,                 Guang%Chen%NULL%5,                 Ke%Ma%NULL%6,                 Dong%Xu%NULL%7,                 Haijing%Yu%NULL%5,                 Hongwu%Wang%NULL%5,                 Tao%Wang%NULL%0,                 Wei%Guo%NULL%5,                 Jia%Chen%NULL%5,                 Chen%Ding%NULL%5,                 Xiaoping%Zhang%NULL%5,                 Jiaquan%Huang%NULL%5,                 Meifang%Han%NULL%5,                 Shusheng%Li%NULL%5,                 Xiaoping%Luo%NULL%5,                 Jianping%Zhao%NULL%0,                 Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                  H.% Xia%null%1,                  W.% Yang%null%1,                  B.% Wang%null%0,                  T.% Guo%null%1,                  J.% Xiong%null%1,                  Z.% Jiang%null%1,                  Y.% Liu%null%0,                  X.% Yan%null%1,                  W.% Zhou%null%1,                  L.% Ye%null%1,                  B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,          Peng%Wang%xref no email%1,          Xingguang%Wang%xref no email%1,          Guoqiang%Qie%xref no email%1,          Mei%Meng%xref no email%1,          Xiwen%Tong%xref no email%1,          Xue%Bai%xref no email%1,          Min%Ding%xref no email%1,          Weiming%Liu%xref no email%1,          Keke%Liu%xref no email%1,          Yufeng%Chu%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1043,7 +1097,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1072,7 +1126,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1101,7 +1155,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1130,7 +1184,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1159,7 +1213,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1188,7 +1242,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1217,7 +1271,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1246,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="218">
   <si>
     <t>Doi</t>
   </si>
@@ -732,6 +732,33 @@
   </si>
   <si>
     <t>[Qingchun%Yao%xref no email%1,          Peng%Wang%xref no email%1,          Xingguang%Wang%xref no email%1,          Guoqiang%Qie%xref no email%1,          Mei%Meng%xref no email%1,          Xiwen%Tong%xref no email%1,          Xue%Bai%xref no email%1,          Min%Ding%xref no email%1,          Weiming%Liu%xref no email%1,          Keke%Liu%xref no email%1,          Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                  Ting%Yu%NULL%0,                  Ronghui%Du%NULL%0,                  Guohui%Fan%NULL%0,                  Ying%Liu%NULL%0,                  Zhibo%Liu%NULL%0,                  Jie%Xiang%NULL%0,                  Yeming%Wang%NULL%0,                  Bin%Song%NULL%0,                  Xiaoying%Gu%NULL%0,                  Lulu%Guan%NULL%0,                  Yuan%Wei%NULL%0,                  Hui%Li%NULL%0,                  Xudong%Wu%NULL%0,                  Jiuyang%Xu%NULL%0,                  Shengjin%Tu%NULL%0,                  Yi%Zhang%NULL%0,                  Hua%Chen%NULL%0,                  Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                  Xinsheng%Yan%NULL%1,                  Qingkun%Fan%NULL%1,                  Haiyan%Liu%NULL%1,                  Xintian%Liu%NULL%1,                  Zejin%Liu%NULL%1,                  Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                  Li-Rong%Liang%NULL%0,                  Cheng-Qing%Yang%NULL%0,                  Wen%Wang%NULL%0,                  Tan-Ze%Cao%NULL%0,                  Ming%Li%NULL%0,                  Guang-Yun%Guo%NULL%0,                  Juan%Du%NULL%0,                  Chun-Lan%Zheng%NULL%0,                  Qi%Zhu%NULL%0,                  Ming%Hu%NULL%0,                  Xu-Yan%Li%NULL%0,                  Peng%Peng%NULL%0,                  Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                  Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                  Wenlin%Cheng%NULL%1,                  Lei%Yu%NULL%1,                  Ya-Kun%Liu%NULL%1,                  Xiaoyong%Hu%NULL%1,                  Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                  Anna Lisa%Ridolfo%NULL%0,                  Laura%Milazzo%NULL%0,                  Letizia%Oreni%NULL%0,                  Dario%Bernacchia%NULL%0,                  Matteo%Siano%NULL%0,                  Cecilia%Bonazzetti%NULL%0,                  Alice%Covizzi%NULL%0,                  Marco%Schiuma%NULL%0,                  Matteo%Passerini%NULL%0,                  Marco%Piscaglia%NULL%0,                  Massimo%Coen%NULL%0,                  Guido%Gubertini%NULL%0,                  Giuliano%Rizzardini%NULL%0,                  Chiara%Cogliati%NULL%0,                  Anna Maria%Brambilla%NULL%0,                  Riccardo%Colombo%NULL%0,                  Antonio%Castelli%NULL%0,                  Roberto%Rech%NULL%0,                  Agostino%Riva%NULL%0,                  Alessandro%Torre%NULL%0,                  Luca%Meroni%NULL%0,                  Stefano%Rusconi%NULL%0,                  Spinello%Antinori%NULL%0,                  Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                   A.% Russak%null%1,                   J. K.% De Freitas%null%1,                   A.% Lala%null%1,                   R.% Miotto%null%1,                   A.% Vaid%null%1,                   K. W.% Johnson%null%1,                   M.% Danieletto%null%1,                   E.% Golden%null%1,                   D.% Meyer%null%1,                   M.% Singh%null%1,                   S.% Somani%null%1,                   S.% Manna%null%1,                   U.% Nangia%null%1,                   A.% Kapoor%null%1,                   R.% O'Hagan%null%1,                   P. F.% O'Reilly%null%1,                   L. M.% Huckins%null%1,                   P.% Glowe%null%1,                   A.% Kia%null%1,                   P.% Timsina%null%1,                   R. M.% Freeman%null%1,                   M. A.% Levin%null%1,                   J.% Jhang%null%1,                   A.% Firpo%null%1,                   P.% Kovatch%null%1,                   J.% Finkelstein%null%1,                   J. A.% Aberg%null%1,                   E.% Bagiella%null%1,                   C. R.% Horowitz%null%1,                   B.% Murphy%null%1,                   Z. A.% Fayad%null%1,                   J.% Narula%null%1,                   E. J.% Nestler%null%1,                   V.% Fuster%null%1,                   C.% Cordon-Cardo%null%1,                   D. S.% Charney%null%1,                   D. L.% Reich%null%1,                   A. C.% Just%null%1,                   E. P.% Bottinger%null%1,                   A. W.% Charney%null%1,                   B. S.% Glicksberg%null%1,                   G.% Nadkarni%null%1,                  couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                  Di%Wu%NULL%5,                  Huilong%Chen%NULL%5,                  Weiming%Yan%NULL%5,                  Danlei%Yang%NULL%5,                  Guang%Chen%NULL%5,                  Ke%Ma%NULL%6,                  Dong%Xu%NULL%7,                  Haijing%Yu%NULL%5,                  Hongwu%Wang%NULL%5,                  Tao%Wang%NULL%0,                  Wei%Guo%NULL%5,                  Jia%Chen%NULL%5,                  Chen%Ding%NULL%5,                  Xiaoping%Zhang%NULL%5,                  Jiaquan%Huang%NULL%5,                  Meifang%Han%NULL%5,                  Shusheng%Li%NULL%5,                  Xiaoping%Luo%NULL%5,                  Jianping%Zhao%NULL%0,                  Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                   H.% Xia%null%1,                   W.% Yang%null%1,                   B.% Wang%null%0,                   T.% Guo%null%1,                   J.% Xiong%null%1,                   Z.% Jiang%null%1,                   Y.% Liu%null%0,                   X.% Yan%null%1,                   W.% Zhou%null%1,                   L.% Ye%null%1,                   B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,           Peng%Wang%xref no email%1,           Xingguang%Wang%xref no email%1,           Guoqiang%Qie%xref no email%1,           Mei%Meng%xref no email%1,           Xiwen%Tong%xref no email%1,           Xue%Bai%xref no email%1,           Min%Ding%xref no email%1,           Weiming%Liu%xref no email%1,           Keke%Liu%xref no email%1,           Yufeng%Chu%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1095,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1097,7 +1124,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1126,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1155,7 +1182,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1184,7 +1211,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1213,7 +1240,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1242,7 +1269,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1271,7 +1298,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1300,7 +1327,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="231">
   <si>
     <t>Doi</t>
   </si>
@@ -759,6 +759,45 @@
   </si>
   <si>
     <t>[Qingchun%Yao%xref no email%1,           Peng%Wang%xref no email%1,           Xingguang%Wang%xref no email%1,           Guoqiang%Qie%xref no email%1,           Mei%Meng%xref no email%1,           Xiwen%Tong%xref no email%1,           Xue%Bai%xref no email%1,           Min%Ding%xref no email%1,           Weiming%Liu%xref no email%1,           Keke%Liu%xref no email%1,           Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                   Ting%Yu%NULL%0,                   Ronghui%Du%NULL%0,                   Guohui%Fan%NULL%0,                   Ying%Liu%NULL%0,                   Zhibo%Liu%NULL%0,                   Jie%Xiang%NULL%0,                   Yeming%Wang%NULL%0,                   Bin%Song%NULL%0,                   Xiaoying%Gu%NULL%0,                   Lulu%Guan%NULL%0,                   Yuan%Wei%NULL%0,                   Hui%Li%NULL%0,                   Xudong%Wu%NULL%0,                   Jiuyang%Xu%NULL%0,                   Shengjin%Tu%NULL%0,                   Yi%Zhang%NULL%0,                   Hua%Chen%NULL%0,                   Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                   Xinsheng%Yan%NULL%1,                   Qingkun%Fan%NULL%1,                   Haiyan%Liu%NULL%1,                   Xintian%Liu%NULL%1,                   Zejin%Liu%NULL%1,                   Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                   Li-Rong%Liang%NULL%0,                   Cheng-Qing%Yang%NULL%0,                   Wen%Wang%NULL%0,                   Tan-Ze%Cao%NULL%0,                   Ming%Li%NULL%0,                   Guang-Yun%Guo%NULL%0,                   Juan%Du%NULL%0,                   Chun-Lan%Zheng%NULL%0,                   Qi%Zhu%NULL%0,                   Ming%Hu%NULL%0,                   Xu-Yan%Li%NULL%0,                   Peng%Peng%NULL%0,                   Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                   Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                   Wenlin%Cheng%NULL%1,                   Lei%Yu%NULL%1,                   Ya-Kun%Liu%NULL%1,                   Xiaoyong%Hu%NULL%1,                   Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                   Anna Lisa%Ridolfo%NULL%0,                   Laura%Milazzo%NULL%0,                   Letizia%Oreni%NULL%0,                   Dario%Bernacchia%NULL%0,                   Matteo%Siano%NULL%0,                   Cecilia%Bonazzetti%NULL%0,                   Alice%Covizzi%NULL%0,                   Marco%Schiuma%NULL%0,                   Matteo%Passerini%NULL%0,                   Marco%Piscaglia%NULL%0,                   Massimo%Coen%NULL%0,                   Guido%Gubertini%NULL%0,                   Giuliano%Rizzardini%NULL%0,                   Chiara%Cogliati%NULL%0,                   Anna Maria%Brambilla%NULL%0,                   Riccardo%Colombo%NULL%0,                   Antonio%Castelli%NULL%0,                   Roberto%Rech%NULL%0,                   Agostino%Riva%NULL%0,                   Alessandro%Torre%NULL%0,                   Luca%Meroni%NULL%0,                   Stefano%Rusconi%NULL%0,                   Spinello%Antinori%NULL%0,                   Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                    A.% Russak%null%1,                    J. K.% De Freitas%null%1,                    A.% Lala%null%1,                    R.% Miotto%null%1,                    A.% Vaid%null%1,                    K. W.% Johnson%null%1,                    M.% Danieletto%null%1,                    E.% Golden%null%1,                    D.% Meyer%null%1,                    M.% Singh%null%1,                    S.% Somani%null%1,                    S.% Manna%null%1,                    U.% Nangia%null%1,                    A.% Kapoor%null%1,                    R.% O'Hagan%null%1,                    P. F.% O'Reilly%null%1,                    L. M.% Huckins%null%1,                    P.% Glowe%null%1,                    A.% Kia%null%1,                    P.% Timsina%null%1,                    R. M.% Freeman%null%1,                    M. A.% Levin%null%1,                    J.% Jhang%null%1,                    A.% Firpo%null%1,                    P.% Kovatch%null%1,                    J.% Finkelstein%null%1,                    J. A.% Aberg%null%1,                    E.% Bagiella%null%1,                    C. R.% Horowitz%null%1,                    B.% Murphy%null%1,                    Z. A.% Fayad%null%1,                    J.% Narula%null%1,                    E. J.% Nestler%null%1,                    V.% Fuster%null%1,                    C.% Cordon-Cardo%null%1,                    D. S.% Charney%null%1,                    D. L.% Reich%null%1,                    A. C.% Just%null%1,                    E. P.% Bottinger%null%1,                    A. W.% Charney%null%1,                    B. S.% Glicksberg%null%1,                    G.% Nadkarni%null%1,                   couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                   Di%Wu%NULL%5,                   Huilong%Chen%NULL%5,                   Weiming%Yan%NULL%5,                   Danlei%Yang%NULL%5,                   Guang%Chen%NULL%5,                   Ke%Ma%NULL%6,                   Dong%Xu%NULL%7,                   Haijing%Yu%NULL%5,                   Hongwu%Wang%NULL%5,                   Tao%Wang%NULL%0,                   Wei%Guo%NULL%5,                   Jia%Chen%NULL%5,                   Chen%Ding%NULL%5,                   Xiaoping%Zhang%NULL%5,                   Jiaquan%Huang%NULL%5,                   Meifang%Han%NULL%5,                   Shusheng%Li%NULL%5,                   Xiaoping%Luo%NULL%5,                   Jianping%Zhao%NULL%0,                   Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                    H.% Xia%null%1,                    W.% Yang%null%1,                    B.% Wang%null%0,                    T.% Guo%null%1,                    J.% Xiong%null%1,                    Z.% Jiang%null%1,                    Y.% Liu%null%0,                    X.% Yan%null%1,                    W.% Zhou%null%1,                    L.% Ye%null%1,                    B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,            Peng%Wang%xref no email%1,            Xingguang%Wang%xref no email%1,            Guoqiang%Qie%xref no email%1,            Mei%Meng%xref no email%1,            Xiwen%Tong%xref no email%1,            Xue%Bai%xref no email%1,            Min%Ding%xref no email%1,            Weiming%Liu%xref no email%1,            Keke%Liu%xref no email%1,            Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1134,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1107,7 +1146,7 @@
         <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
@@ -1124,7 +1163,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1136,7 +1175,7 @@
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
@@ -1153,7 +1192,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1165,7 +1204,7 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5">
@@ -1182,7 +1221,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1194,7 +1233,7 @@
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6">
@@ -1211,7 +1250,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1223,7 +1262,7 @@
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7">
@@ -1240,7 +1279,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1252,7 +1291,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8">
@@ -1269,7 +1308,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1281,7 +1320,7 @@
         <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
@@ -1298,7 +1337,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1310,7 +1349,7 @@
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10">
@@ -1327,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1339,7 +1378,7 @@
         <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="240">
   <si>
     <t>Doi</t>
   </si>
@@ -798,6 +798,33 @@
   </si>
   <si>
     <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                    Ting%Yu%NULL%0,                    Ronghui%Du%NULL%0,                    Guohui%Fan%NULL%0,                    Ying%Liu%NULL%0,                    Zhibo%Liu%NULL%0,                    Jie%Xiang%NULL%0,                    Yeming%Wang%NULL%0,                    Bin%Song%NULL%0,                    Xiaoying%Gu%NULL%0,                    Lulu%Guan%NULL%0,                    Yuan%Wei%NULL%0,                    Hui%Li%NULL%0,                    Xudong%Wu%NULL%0,                    Jiuyang%Xu%NULL%0,                    Shengjin%Tu%NULL%0,                    Yi%Zhang%NULL%0,                    Hua%Chen%NULL%0,                    Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                    Xinsheng%Yan%NULL%1,                    Qingkun%Fan%NULL%1,                    Haiyan%Liu%NULL%1,                    Xintian%Liu%NULL%1,                    Zejin%Liu%NULL%1,                    Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                    Li-Rong%Liang%NULL%0,                    Cheng-Qing%Yang%NULL%0,                    Wen%Wang%NULL%0,                    Tan-Ze%Cao%NULL%0,                    Ming%Li%NULL%0,                    Guang-Yun%Guo%NULL%0,                    Juan%Du%NULL%0,                    Chun-Lan%Zheng%NULL%0,                    Qi%Zhu%NULL%0,                    Ming%Hu%NULL%0,                    Xu-Yan%Li%NULL%0,                    Peng%Peng%NULL%0,                    Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                    Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                    Wenlin%Cheng%NULL%1,                    Lei%Yu%NULL%1,                    Ya-Kun%Liu%NULL%1,                    Xiaoyong%Hu%NULL%1,                    Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                    Anna Lisa%Ridolfo%NULL%0,                    Laura%Milazzo%NULL%0,                    Letizia%Oreni%NULL%0,                    Dario%Bernacchia%NULL%0,                    Matteo%Siano%NULL%0,                    Cecilia%Bonazzetti%NULL%0,                    Alice%Covizzi%NULL%0,                    Marco%Schiuma%NULL%0,                    Matteo%Passerini%NULL%0,                    Marco%Piscaglia%NULL%0,                    Massimo%Coen%NULL%0,                    Guido%Gubertini%NULL%0,                    Giuliano%Rizzardini%NULL%0,                    Chiara%Cogliati%NULL%0,                    Anna Maria%Brambilla%NULL%0,                    Riccardo%Colombo%NULL%0,                    Antonio%Castelli%NULL%0,                    Roberto%Rech%NULL%0,                    Agostino%Riva%NULL%0,                    Alessandro%Torre%NULL%0,                    Luca%Meroni%NULL%0,                    Stefano%Rusconi%NULL%0,                    Spinello%Antinori%NULL%0,                    Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%2,                     A.% Russak%null%1,                     J. K.% De Freitas%null%1,                     A.% Lala%null%1,                     R.% Miotto%null%1,                     A.% Vaid%null%1,                     K. W.% Johnson%null%1,                     M.% Danieletto%null%1,                     E.% Golden%null%1,                     D.% Meyer%null%1,                     M.% Singh%null%1,                     S.% Somani%null%1,                     S.% Manna%null%1,                     U.% Nangia%null%1,                     A.% Kapoor%null%1,                     R.% O'Hagan%null%1,                     P. F.% O'Reilly%null%1,                     L. M.% Huckins%null%1,                     P.% Glowe%null%1,                     A.% Kia%null%1,                     P.% Timsina%null%1,                     R. M.% Freeman%null%1,                     M. A.% Levin%null%1,                     J.% Jhang%null%1,                     A.% Firpo%null%1,                     P.% Kovatch%null%1,                     J.% Finkelstein%null%1,                     J. A.% Aberg%null%1,                     E.% Bagiella%null%1,                     C. R.% Horowitz%null%1,                     B.% Murphy%null%1,                     Z. A.% Fayad%null%1,                     J.% Narula%null%1,                     E. J.% Nestler%null%1,                     V.% Fuster%null%1,                     C.% Cordon-Cardo%null%1,                     D. S.% Charney%null%1,                     D. L.% Reich%null%1,                     A. C.% Just%null%1,                     E. P.% Bottinger%null%1,                     A. W.% Charney%null%1,                     B. S.% Glicksberg%null%1,                     G.% Nadkarni%null%1,                    couldn't find firstname% Mount Sina %null%1,  I.%Paranjpe%null%0,  A.% Russak%null%1,  J. K.% De Freitas%null%1,  A.% Lala%null%1,  R.% Miotto%null%1,  A.% Vaid%null%1,  K. W.% Johnson%null%1,  M.% Danieletto%null%1,  E.% Golden%null%1,  D.% Meyer%null%1,  M.% Singh%null%1,  S.% Somani%null%1,  S.% Manna%null%1,  U.% Nangia%null%1,  A.% Kapoor%null%1,  R.% O'Hagan%null%1,  P. F.% O'Reilly%null%1,  L. M.% Huckins%null%1,  P.% Glowe%null%1,  A.% Kia%null%1,  P.% Timsina%null%1,  R. M.% Freeman%null%1,  M. A.% Levin%null%1,  J.% Jhang%null%1,  A.% Firpo%null%1,  P.% Kovatch%null%0,  J.% Finkelstein%null%1,  J. A.% Aberg%null%1,  E.% Bagiella%null%1,  C. R.% Horowitz%null%1,  B.% Murphy%null%1,  Z. A.% Fayad%null%1,  J.% Narula%null%1,  E. J.% Nestler%null%1,  V.% Fuster%null%1,  C.% Cordon-Cardo%null%1,  D. S.% Charney%null%1,  D. L.% Reich%null%1,  A. C.% Just%null%1,  E. P.% Bottinger%null%1,  A. W.% Charney%null%1,  B. S.% Glicksberg%null%1,  G.% Nadkarni%null%1, couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                    Di%Wu%NULL%5,                    Huilong%Chen%NULL%5,                    Weiming%Yan%NULL%5,                    Danlei%Yang%NULL%5,                    Guang%Chen%NULL%5,                    Ke%Ma%NULL%6,                    Dong%Xu%NULL%7,                    Haijing%Yu%NULL%5,                    Hongwu%Wang%NULL%5,                    Tao%Wang%NULL%0,                    Wei%Guo%NULL%5,                    Jia%Chen%NULL%5,                    Chen%Ding%NULL%5,                    Xiaoping%Zhang%NULL%5,                    Jiaquan%Huang%NULL%5,                    Meifang%Han%NULL%5,                    Shusheng%Li%NULL%5,                    Xiaoping%Luo%NULL%5,                    Jianping%Zhao%NULL%0,                    Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%2,                     H.% Xia%null%1,                     W.% Yang%null%1,                     B.% Wang%null%0,                     T.% Guo%null%1,                     J.% Xiong%null%1,                     Z.% Jiang%null%1,                     Y.% Liu%null%0,                     X.% Yan%null%1,                     W.% Zhou%null%1,                     L.% Ye%null%1,                     B. % Zhang%null%1,  X.%Luo%null%0,  H.% Xia%null%1,  W.% Yang%null%1,  B.% Wang%null%0,  T.% Guo%null%1,  J.% Xiong%null%1,  Z.% Jiang%null%1,  Y.% Liu%null%0,  X.% Yan%null%0,  W.% Zhou%null%0,  L.% Ye%null%1,  B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%1,             Peng%Wang%xref no email%1,             Xingguang%Wang%xref no email%1,             Guoqiang%Qie%xref no email%1,             Mei%Meng%xref no email%1,             Xiwen%Tong%xref no email%1,             Xue%Bai%xref no email%1,             Min%Ding%xref no email%1,             Weiming%Liu%xref no email%1,             Keke%Liu%xref no email%1,             Yufeng%Chu%xref no email%1]</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1161,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1163,7 +1190,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1192,7 +1219,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1221,7 +1248,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1250,7 +1277,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1279,7 +1306,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1308,7 +1335,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1337,7 +1364,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1366,7 +1393,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="283">
   <si>
     <t>Doi</t>
   </si>
@@ -825,6 +825,135 @@
   </si>
   <si>
     <t>[Qingchun%Yao%xref no email%1,             Peng%Wang%xref no email%1,             Xingguang%Wang%xref no email%1,             Guoqiang%Qie%xref no email%1,             Mei%Meng%xref no email%1,             Xiwen%Tong%xref no email%1,             Xue%Bai%xref no email%1,             Min%Ding%xref no email%1,             Weiming%Liu%xref no email%1,             Keke%Liu%xref no email%1,             Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                     Ting%Yu%NULL%0,                     Ronghui%Du%NULL%0,                     Guohui%Fan%NULL%0,                     Ying%Liu%NULL%0,                     Zhibo%Liu%NULL%0,                     Jie%Xiang%NULL%0,                     Yeming%Wang%NULL%0,                     Bin%Song%NULL%0,                     Xiaoying%Gu%NULL%0,                     Lulu%Guan%NULL%0,                     Yuan%Wei%NULL%0,                     Hui%Li%NULL%0,                     Xudong%Wu%NULL%0,                     Jiuyang%Xu%NULL%0,                     Shengjin%Tu%NULL%0,                     Yi%Zhang%NULL%0,                     Hua%Chen%NULL%0,                     Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                     Xinsheng%Yan%NULL%1,                     Qingkun%Fan%NULL%1,                     Haiyan%Liu%NULL%1,                     Xintian%Liu%NULL%1,                     Zejin%Liu%NULL%1,                     Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                     Li-Rong%Liang%NULL%0,                     Cheng-Qing%Yang%NULL%0,                     Wen%Wang%NULL%0,                     Tan-Ze%Cao%NULL%0,                     Ming%Li%NULL%0,                     Guang-Yun%Guo%NULL%0,                     Juan%Du%NULL%0,                     Chun-Lan%Zheng%NULL%0,                     Qi%Zhu%NULL%0,                     Ming%Hu%NULL%0,                     Xu-Yan%Li%NULL%0,                     Peng%Peng%NULL%0,                     Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                     Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                     Wenlin%Cheng%NULL%1,                     Lei%Yu%NULL%1,                     Ya-Kun%Liu%NULL%1,                     Xiaoyong%Hu%NULL%1,                     Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                     Anna Lisa%Ridolfo%NULL%0,                     Laura%Milazzo%NULL%0,                     Letizia%Oreni%NULL%0,                     Dario%Bernacchia%NULL%0,                     Matteo%Siano%NULL%0,                     Cecilia%Bonazzetti%NULL%0,                     Alice%Covizzi%NULL%0,                     Marco%Schiuma%NULL%0,                     Matteo%Passerini%NULL%0,                     Marco%Piscaglia%NULL%0,                     Massimo%Coen%NULL%0,                     Guido%Gubertini%NULL%0,                     Giuliano%Rizzardini%NULL%0,                     Chiara%Cogliati%NULL%0,                     Anna Maria%Brambilla%NULL%0,                     Riccardo%Colombo%NULL%0,                     Antonio%Castelli%NULL%0,                     Roberto%Rech%NULL%0,                     Agostino%Riva%NULL%0,                     Alessandro%Torre%NULL%0,                     Luca%Meroni%NULL%0,                     Stefano%Rusconi%NULL%0,                     Spinello%Antinori%NULL%0,                     Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                      A.% Russak%null%1,                      J. K.% De Freitas%null%1,                      A.% Lala%null%1,                      R.% Miotto%null%1,                      A.% Vaid%null%1,                      K. W.% Johnson%null%1,                      M.% Danieletto%null%1,                      E.% Golden%null%1,                      D.% Meyer%null%1,                      M.% Singh%null%1,                      S.% Somani%null%1,                      S.% Manna%null%1,                      U.% Nangia%null%1,                      A.% Kapoor%null%1,                      R.% O'Hagan%null%1,                      P. F.% O'Reilly%null%1,                      L. M.% Huckins%null%1,                      P.% Glowe%null%1,                      A.% Kia%null%1,                      P.% Timsina%null%1,                      R. M.% Freeman%null%1,                      M. A.% Levin%null%1,                      J.% Jhang%null%1,                      A.% Firpo%null%1,                      P.% Kovatch%null%1,                      J.% Finkelstein%null%1,                      J. A.% Aberg%null%1,                      E.% Bagiella%null%1,                      C. R.% Horowitz%null%1,                      B.% Murphy%null%1,                      Z. A.% Fayad%null%1,                      J.% Narula%null%1,                      E. J.% Nestler%null%1,                      V.% Fuster%null%1,                      C.% Cordon-Cardo%null%1,                      D. S.% Charney%null%1,                      D. L.% Reich%null%1,                      A. C.% Just%null%1,                      E. P.% Bottinger%null%1,                      A. W.% Charney%null%1,                      B. S.% Glicksberg%null%1,                      G.% Nadkarni%null%1,                     couldn't find firstname% Mount Sina %null%1,   I.%Paranjpe%null%1,   A.% Russak%null%1,   J. K.% De Freitas%null%1,   A.% Lala%null%1,   R.% Miotto%null%1,   A.% Vaid%null%1,   K. W.% Johnson%null%1,   M.% Danieletto%null%1,   E.% Golden%null%1,   D.% Meyer%null%1,   M.% Singh%null%1,   S.% Somani%null%1,   S.% Manna%null%1,   U.% Nangia%null%1,   A.% Kapoor%null%1,   R.% O'Hagan%null%1,   P. F.% O'Reilly%null%1,   L. M.% Huckins%null%1,   P.% Glowe%null%1,   A.% Kia%null%1,   P.% Timsina%null%1,   R. M.% Freeman%null%1,   M. A.% Levin%null%1,   J.% Jhang%null%1,   A.% Firpo%null%1,   P.% Kovatch%null%0,   J.% Finkelstein%null%1,   J. A.% Aberg%null%1,   E.% Bagiella%null%1,   C. R.% Horowitz%null%1,   B.% Murphy%null%1,   Z. A.% Fayad%null%1,   J.% Narula%null%1,   E. J.% Nestler%null%1,   V.% Fuster%null%1,   C.% Cordon-Cardo%null%1,   D. S.% Charney%null%1,   D. L.% Reich%null%1,   A. C.% Just%null%1,   E. P.% Bottinger%null%1,   A. W.% Charney%null%1,   B. S.% Glicksberg%null%1,   G.% Nadkarni%null%1,  couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                     Di%Wu%NULL%5,                     Huilong%Chen%NULL%5,                     Weiming%Yan%NULL%5,                     Danlei%Yang%NULL%5,                     Guang%Chen%NULL%5,                     Ke%Ma%NULL%6,                     Dong%Xu%NULL%7,                     Haijing%Yu%NULL%5,                     Hongwu%Wang%NULL%5,                     Tao%Wang%NULL%0,                     Wei%Guo%NULL%5,                     Jia%Chen%NULL%5,                     Chen%Ding%NULL%5,                     Xiaoping%Zhang%NULL%5,                     Jiaquan%Huang%NULL%5,                     Meifang%Han%NULL%5,                     Shusheng%Li%NULL%5,                     Xiaoping%Luo%NULL%5,                     Jianping%Zhao%NULL%0,                     Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                      H.% Xia%null%1,                      W.% Yang%null%1,                      B.% Wang%null%0,                      T.% Guo%null%1,                      J.% Xiong%null%1,                      Z.% Jiang%null%1,                      Y.% Liu%null%0,                      X.% Yan%null%1,                      W.% Zhou%null%1,                      L.% Ye%null%1,                      B. % Zhang%null%1,   X.%Luo%null%1,   H.% Xia%null%1,   W.% Yang%null%1,   B.% Wang%null%0,   T.% Guo%null%1,   J.% Xiong%null%1,   Z.% Jiang%null%1,   Y.% Liu%null%0,   X.% Yan%null%1,   W.% Zhou%null%0,   L.% Ye%null%1,   B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Qingchun%Yao%xref no email%0, Peng%Wang%xref no email%1, Xingguang%Wang%xref no email%1, Guoqiang%Qie%xref no email%1, Mei%Meng%xref no email%1, Xiwen%Tong%xref no email%1, Xue%Bai%xref no email%1, Min%Ding%xref no email%1, Weiming%Liu%xref no email%1, Keke%Liu%xref no email%1, Yufeng%Chu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Medycyna Praktyczna</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                      Ting%Yu%NULL%0,                      Ronghui%Du%NULL%0,                      Guohui%Fan%NULL%0,                      Ying%Liu%NULL%0,                      Zhibo%Liu%NULL%0,                      Jie%Xiang%NULL%0,                      Yeming%Wang%NULL%0,                      Bin%Song%NULL%0,                      Xiaoying%Gu%NULL%0,                      Lulu%Guan%NULL%0,                      Yuan%Wei%NULL%0,                      Hui%Li%NULL%0,                      Xudong%Wu%NULL%0,                      Jiuyang%Xu%NULL%0,                      Shengjin%Tu%NULL%0,                      Yi%Zhang%NULL%0,                      Hua%Chen%NULL%0,                      Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                      Xinsheng%Yan%NULL%1,                      Qingkun%Fan%NULL%1,                      Haiyan%Liu%NULL%1,                      Xintian%Liu%NULL%1,                      Zejin%Liu%NULL%1,                      Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                      Li-Rong%Liang%NULL%0,                      Cheng-Qing%Yang%NULL%0,                      Wen%Wang%NULL%0,                      Tan-Ze%Cao%NULL%0,                      Ming%Li%NULL%0,                      Guang-Yun%Guo%NULL%0,                      Juan%Du%NULL%0,                      Chun-Lan%Zheng%NULL%0,                      Qi%Zhu%NULL%0,                      Ming%Hu%NULL%0,                      Xu-Yan%Li%NULL%0,                      Peng%Peng%NULL%0,                      Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                      Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                      Wenlin%Cheng%NULL%1,                      Lei%Yu%NULL%1,                      Ya-Kun%Liu%NULL%1,                      Xiaoyong%Hu%NULL%1,                      Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                      Anna Lisa%Ridolfo%NULL%0,                      Laura%Milazzo%NULL%0,                      Letizia%Oreni%NULL%0,                      Dario%Bernacchia%NULL%0,                      Matteo%Siano%NULL%0,                      Cecilia%Bonazzetti%NULL%0,                      Alice%Covizzi%NULL%0,                      Marco%Schiuma%NULL%0,                      Matteo%Passerini%NULL%0,                      Marco%Piscaglia%NULL%0,                      Massimo%Coen%NULL%0,                      Guido%Gubertini%NULL%0,                      Giuliano%Rizzardini%NULL%0,                      Chiara%Cogliati%NULL%0,                      Anna Maria%Brambilla%NULL%0,                      Riccardo%Colombo%NULL%0,                      Antonio%Castelli%NULL%0,                      Roberto%Rech%NULL%0,                      Agostino%Riva%NULL%0,                      Alessandro%Torre%NULL%0,                      Luca%Meroni%NULL%0,                      Stefano%Rusconi%NULL%0,                      Spinello%Antinori%NULL%0,                      Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                       A.% Russak%null%1,                       J. K.% De Freitas%null%1,                       A.% Lala%null%1,                       R.% Miotto%null%1,                       A.% Vaid%null%1,                       K. W.% Johnson%null%1,                       M.% Danieletto%null%1,                       E.% Golden%null%1,                       D.% Meyer%null%1,                       M.% Singh%null%1,                       S.% Somani%null%1,                       S.% Manna%null%1,                       U.% Nangia%null%1,                       A.% Kapoor%null%1,                       R.% O'Hagan%null%1,                       P. F.% O'Reilly%null%1,                       L. M.% Huckins%null%1,                       P.% Glowe%null%1,                       A.% Kia%null%1,                       P.% Timsina%null%1,                       R. M.% Freeman%null%1,                       M. A.% Levin%null%1,                       J.% Jhang%null%1,                       A.% Firpo%null%1,                       P.% Kovatch%null%1,                       J.% Finkelstein%null%1,                       J. A.% Aberg%null%1,                       E.% Bagiella%null%1,                       C. R.% Horowitz%null%1,                       B.% Murphy%null%1,                       Z. A.% Fayad%null%1,                       J.% Narula%null%1,                       E. J.% Nestler%null%1,                       V.% Fuster%null%1,                       C.% Cordon-Cardo%null%1,                       D. S.% Charney%null%1,                       D. L.% Reich%null%1,                       A. C.% Just%null%1,                       E. P.% Bottinger%null%1,                       A. W.% Charney%null%1,                       B. S.% Glicksberg%null%1,                       G.% Nadkarni%null%1,                      couldn't find firstname% Mount Sina %null%1,    I.%Paranjpe%null%1,    A.% Russak%null%1,    J. K.% De Freitas%null%1,    A.% Lala%null%1,    R.% Miotto%null%1,    A.% Vaid%null%1,    K. W.% Johnson%null%1,    M.% Danieletto%null%1,    E.% Golden%null%1,    D.% Meyer%null%1,    M.% Singh%null%1,    S.% Somani%null%1,    S.% Manna%null%1,    U.% Nangia%null%1,    A.% Kapoor%null%1,    R.% O'Hagan%null%1,    P. F.% O'Reilly%null%1,    L. M.% Huckins%null%1,    P.% Glowe%null%1,    A.% Kia%null%1,    P.% Timsina%null%1,    R. M.% Freeman%null%1,    M. A.% Levin%null%1,    J.% Jhang%null%1,    A.% Firpo%null%1,    P.% Kovatch%null%0,    J.% Finkelstein%null%1,    J. A.% Aberg%null%1,    E.% Bagiella%null%1,    C. R.% Horowitz%null%1,    B.% Murphy%null%1,    Z. A.% Fayad%null%1,    J.% Narula%null%1,    E. J.% Nestler%null%1,    V.% Fuster%null%1,    C.% Cordon-Cardo%null%1,    D. S.% Charney%null%1,    D. L.% Reich%null%1,    A. C.% Just%null%1,    E. P.% Bottinger%null%1,    A. W.% Charney%null%1,    B. S.% Glicksberg%null%1,    G.% Nadkarni%null%1,   couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                      Di%Wu%NULL%5,                      Huilong%Chen%NULL%5,                      Weiming%Yan%NULL%5,                      Danlei%Yang%NULL%5,                      Guang%Chen%NULL%5,                      Ke%Ma%NULL%6,                      Dong%Xu%NULL%7,                      Haijing%Yu%NULL%5,                      Hongwu%Wang%NULL%5,                      Tao%Wang%NULL%0,                      Wei%Guo%NULL%5,                      Jia%Chen%NULL%5,                      Chen%Ding%NULL%5,                      Xiaoping%Zhang%NULL%5,                      Jiaquan%Huang%NULL%5,                      Meifang%Han%NULL%5,                      Shusheng%Li%NULL%5,                      Xiaoping%Luo%NULL%5,                      Jianping%Zhao%NULL%0,                      Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                       H.% Xia%null%1,                       W.% Yang%null%1,                       B.% Wang%null%0,                       T.% Guo%null%1,                       J.% Xiong%null%1,                       Z.% Jiang%null%1,                       Y.% Liu%null%0,                       X.% Yan%null%1,                       W.% Zhou%null%1,                       L.% Ye%null%1,                       B. % Zhang%null%1,    X.%Luo%null%1,    H.% Xia%null%1,    W.% Yang%null%1,    B.% Wang%null%0,    T.% Guo%null%1,    J.% Xiong%null%1,    Z.% Jiang%null%1,    Y.% Liu%null%0,    X.% Yan%null%1,    W.% Zhou%null%0,    L.% Ye%null%1,    B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                       Ting%Yu%NULL%0,                       Ronghui%Du%NULL%0,                       Guohui%Fan%NULL%0,                       Ying%Liu%NULL%0,                       Zhibo%Liu%NULL%0,                       Jie%Xiang%NULL%0,                       Yeming%Wang%NULL%0,                       Bin%Song%NULL%0,                       Xiaoying%Gu%NULL%0,                       Lulu%Guan%NULL%0,                       Yuan%Wei%NULL%0,                       Hui%Li%NULL%0,                       Xudong%Wu%NULL%0,                       Jiuyang%Xu%NULL%0,                       Shengjin%Tu%NULL%0,                       Yi%Zhang%NULL%0,                       Hua%Chen%NULL%0,                       Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                       Xinsheng%Yan%NULL%1,                       Qingkun%Fan%NULL%1,                       Haiyan%Liu%NULL%1,                       Xintian%Liu%NULL%1,                       Zejin%Liu%NULL%1,                       Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                       Li-Rong%Liang%NULL%0,                       Cheng-Qing%Yang%NULL%0,                       Wen%Wang%NULL%0,                       Tan-Ze%Cao%NULL%0,                       Ming%Li%NULL%0,                       Guang-Yun%Guo%NULL%0,                       Juan%Du%NULL%0,                       Chun-Lan%Zheng%NULL%0,                       Qi%Zhu%NULL%0,                       Ming%Hu%NULL%0,                       Xu-Yan%Li%NULL%0,                       Peng%Peng%NULL%0,                       Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                       Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                       Wenlin%Cheng%NULL%1,                       Lei%Yu%NULL%1,                       Ya-Kun%Liu%NULL%1,                       Xiaoyong%Hu%NULL%1,                       Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                       Anna Lisa%Ridolfo%NULL%0,                       Laura%Milazzo%NULL%0,                       Letizia%Oreni%NULL%0,                       Dario%Bernacchia%NULL%0,                       Matteo%Siano%NULL%0,                       Cecilia%Bonazzetti%NULL%0,                       Alice%Covizzi%NULL%0,                       Marco%Schiuma%NULL%0,                       Matteo%Passerini%NULL%0,                       Marco%Piscaglia%NULL%0,                       Massimo%Coen%NULL%0,                       Guido%Gubertini%NULL%0,                       Giuliano%Rizzardini%NULL%0,                       Chiara%Cogliati%NULL%0,                       Anna Maria%Brambilla%NULL%0,                       Riccardo%Colombo%NULL%0,                       Antonio%Castelli%NULL%0,                       Roberto%Rech%NULL%0,                       Agostino%Riva%NULL%0,                       Alessandro%Torre%NULL%0,                       Luca%Meroni%NULL%0,                       Stefano%Rusconi%NULL%0,                       Spinello%Antinori%NULL%0,                       Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                        A.% Russak%null%1,                        J. K.% De Freitas%null%1,                        A.% Lala%null%1,                        R.% Miotto%null%1,                        A.% Vaid%null%1,                        K. W.% Johnson%null%1,                        M.% Danieletto%null%1,                        E.% Golden%null%1,                        D.% Meyer%null%1,                        M.% Singh%null%1,                        S.% Somani%null%1,                        S.% Manna%null%1,                        U.% Nangia%null%1,                        A.% Kapoor%null%1,                        R.% O'Hagan%null%1,                        P. F.% O'Reilly%null%1,                        L. M.% Huckins%null%1,                        P.% Glowe%null%1,                        A.% Kia%null%1,                        P.% Timsina%null%1,                        R. M.% Freeman%null%1,                        M. A.% Levin%null%1,                        J.% Jhang%null%1,                        A.% Firpo%null%1,                        P.% Kovatch%null%1,                        J.% Finkelstein%null%1,                        J. A.% Aberg%null%1,                        E.% Bagiella%null%1,                        C. R.% Horowitz%null%1,                        B.% Murphy%null%1,                        Z. A.% Fayad%null%1,                        J.% Narula%null%1,                        E. J.% Nestler%null%1,                        V.% Fuster%null%1,                        C.% Cordon-Cardo%null%1,                        D. S.% Charney%null%1,                        D. L.% Reich%null%1,                        A. C.% Just%null%1,                        E. P.% Bottinger%null%1,                        A. W.% Charney%null%1,                        B. S.% Glicksberg%null%1,                        G.% Nadkarni%null%1,                       couldn't find firstname% Mount Sina %null%1,     I.%Paranjpe%null%1,     A.% Russak%null%1,     J. K.% De Freitas%null%1,     A.% Lala%null%1,     R.% Miotto%null%1,     A.% Vaid%null%1,     K. W.% Johnson%null%1,     M.% Danieletto%null%1,     E.% Golden%null%1,     D.% Meyer%null%1,     M.% Singh%null%1,     S.% Somani%null%1,     S.% Manna%null%1,     U.% Nangia%null%1,     A.% Kapoor%null%1,     R.% O'Hagan%null%1,     P. F.% O'Reilly%null%1,     L. M.% Huckins%null%1,     P.% Glowe%null%1,     A.% Kia%null%1,     P.% Timsina%null%1,     R. M.% Freeman%null%1,     M. A.% Levin%null%1,     J.% Jhang%null%1,     A.% Firpo%null%1,     P.% Kovatch%null%0,     J.% Finkelstein%null%1,     J. A.% Aberg%null%1,     E.% Bagiella%null%1,     C. R.% Horowitz%null%1,     B.% Murphy%null%1,     Z. A.% Fayad%null%1,     J.% Narula%null%1,     E. J.% Nestler%null%1,     V.% Fuster%null%1,     C.% Cordon-Cardo%null%1,     D. S.% Charney%null%1,     D. L.% Reich%null%1,     A. C.% Just%null%1,     E. P.% Bottinger%null%1,     A. W.% Charney%null%1,     B. S.% Glicksberg%null%1,     G.% Nadkarni%null%1,    couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                       Di%Wu%NULL%5,                       Huilong%Chen%NULL%5,                       Weiming%Yan%NULL%5,                       Danlei%Yang%NULL%5,                       Guang%Chen%NULL%5,                       Ke%Ma%NULL%6,                       Dong%Xu%NULL%7,                       Haijing%Yu%NULL%5,                       Hongwu%Wang%NULL%5,                       Tao%Wang%NULL%0,                       Wei%Guo%NULL%5,                       Jia%Chen%NULL%5,                       Chen%Ding%NULL%5,                       Xiaoping%Zhang%NULL%5,                       Jiaquan%Huang%NULL%5,                       Meifang%Han%NULL%5,                       Shusheng%Li%NULL%5,                       Xiaoping%Luo%NULL%5,                       Jianping%Zhao%NULL%0,                       Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                        H.% Xia%null%1,                        W.% Yang%null%1,                        B.% Wang%null%0,                        T.% Guo%null%1,                        J.% Xiong%null%1,                        Z.% Jiang%null%1,                        Y.% Liu%null%0,                        X.% Yan%null%1,                        W.% Zhou%null%1,                        L.% Ye%null%1,                        B. % Zhang%null%1,     X.%Luo%null%1,     H.% Xia%null%1,     W.% Yang%null%1,     B.% Wang%null%0,     T.% Guo%null%1,     J.% Xiong%null%1,     Z.% Jiang%null%1,     Y.% Liu%null%0,     X.% Yan%null%1,     W.% Zhou%null%0,     L.% Ye%null%1,     B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                        Ting%Yu%NULL%0,                        Ronghui%Du%NULL%0,                        Guohui%Fan%NULL%0,                        Ying%Liu%NULL%0,                        Zhibo%Liu%NULL%0,                        Jie%Xiang%NULL%0,                        Yeming%Wang%NULL%0,                        Bin%Song%NULL%0,                        Xiaoying%Gu%NULL%0,                        Lulu%Guan%NULL%0,                        Yuan%Wei%NULL%0,                        Hui%Li%NULL%0,                        Xudong%Wu%NULL%0,                        Jiuyang%Xu%NULL%0,                        Shengjin%Tu%NULL%0,                        Yi%Zhang%NULL%0,                        Hua%Chen%NULL%0,                        Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                        Xinsheng%Yan%NULL%1,                        Qingkun%Fan%NULL%1,                        Haiyan%Liu%NULL%1,                        Xintian%Liu%NULL%1,                        Zejin%Liu%NULL%1,                        Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                        Li-Rong%Liang%NULL%0,                        Cheng-Qing%Yang%NULL%0,                        Wen%Wang%NULL%0,                        Tan-Ze%Cao%NULL%0,                        Ming%Li%NULL%0,                        Guang-Yun%Guo%NULL%0,                        Juan%Du%NULL%0,                        Chun-Lan%Zheng%NULL%0,                        Qi%Zhu%NULL%0,                        Ming%Hu%NULL%0,                        Xu-Yan%Li%NULL%0,                        Peng%Peng%NULL%0,                        Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                        Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                        Wenlin%Cheng%NULL%1,                        Lei%Yu%NULL%1,                        Ya-Kun%Liu%NULL%1,                        Xiaoyong%Hu%NULL%1,                        Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                        Anna Lisa%Ridolfo%NULL%0,                        Laura%Milazzo%NULL%0,                        Letizia%Oreni%NULL%0,                        Dario%Bernacchia%NULL%0,                        Matteo%Siano%NULL%0,                        Cecilia%Bonazzetti%NULL%0,                        Alice%Covizzi%NULL%0,                        Marco%Schiuma%NULL%0,                        Matteo%Passerini%NULL%0,                        Marco%Piscaglia%NULL%0,                        Massimo%Coen%NULL%0,                        Guido%Gubertini%NULL%0,                        Giuliano%Rizzardini%NULL%0,                        Chiara%Cogliati%NULL%0,                        Anna Maria%Brambilla%NULL%0,                        Riccardo%Colombo%NULL%0,                        Antonio%Castelli%NULL%0,                        Roberto%Rech%NULL%0,                        Agostino%Riva%NULL%0,                        Alessandro%Torre%NULL%0,                        Luca%Meroni%NULL%0,                        Stefano%Rusconi%NULL%0,                        Spinello%Antinori%NULL%0,                        Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                         A.% Russak%null%1,                         J. K.% De Freitas%null%1,                         A.% Lala%null%1,                         R.% Miotto%null%1,                         A.% Vaid%null%1,                         K. W.% Johnson%null%1,                         M.% Danieletto%null%1,                         E.% Golden%null%1,                         D.% Meyer%null%1,                         M.% Singh%null%1,                         S.% Somani%null%1,                         S.% Manna%null%1,                         U.% Nangia%null%1,                         A.% Kapoor%null%1,                         R.% O'Hagan%null%1,                         P. F.% O'Reilly%null%1,                         L. M.% Huckins%null%1,                         P.% Glowe%null%1,                         A.% Kia%null%1,                         P.% Timsina%null%1,                         R. M.% Freeman%null%1,                         M. A.% Levin%null%1,                         J.% Jhang%null%1,                         A.% Firpo%null%1,                         P.% Kovatch%null%1,                         J.% Finkelstein%null%1,                         J. A.% Aberg%null%1,                         E.% Bagiella%null%1,                         C. R.% Horowitz%null%1,                         B.% Murphy%null%1,                         Z. A.% Fayad%null%1,                         J.% Narula%null%1,                         E. J.% Nestler%null%1,                         V.% Fuster%null%1,                         C.% Cordon-Cardo%null%1,                         D. S.% Charney%null%1,                         D. L.% Reich%null%1,                         A. C.% Just%null%1,                         E. P.% Bottinger%null%1,                         A. W.% Charney%null%1,                         B. S.% Glicksberg%null%1,                         G.% Nadkarni%null%1,                        couldn't find firstname% Mount Sina %null%1,      I.%Paranjpe%null%1,      A.% Russak%null%1,      J. K.% De Freitas%null%1,      A.% Lala%null%1,      R.% Miotto%null%1,      A.% Vaid%null%1,      K. W.% Johnson%null%1,      M.% Danieletto%null%1,      E.% Golden%null%1,      D.% Meyer%null%1,      M.% Singh%null%1,      S.% Somani%null%1,      S.% Manna%null%1,      U.% Nangia%null%1,      A.% Kapoor%null%1,      R.% O'Hagan%null%1,      P. F.% O'Reilly%null%1,      L. M.% Huckins%null%1,      P.% Glowe%null%1,      A.% Kia%null%1,      P.% Timsina%null%1,      R. M.% Freeman%null%1,      M. A.% Levin%null%1,      J.% Jhang%null%1,      A.% Firpo%null%1,      P.% Kovatch%null%0,      J.% Finkelstein%null%1,      J. A.% Aberg%null%1,      E.% Bagiella%null%1,      C. R.% Horowitz%null%1,      B.% Murphy%null%1,      Z. A.% Fayad%null%1,      J.% Narula%null%1,      E. J.% Nestler%null%1,      V.% Fuster%null%1,      C.% Cordon-Cardo%null%1,      D. S.% Charney%null%1,      D. L.% Reich%null%1,      A. C.% Just%null%1,      E. P.% Bottinger%null%1,      A. W.% Charney%null%1,      B. S.% Glicksberg%null%1,      G.% Nadkarni%null%1,     couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                        Di%Wu%NULL%5,                        Huilong%Chen%NULL%5,                        Weiming%Yan%NULL%5,                        Danlei%Yang%NULL%5,                        Guang%Chen%NULL%5,                        Ke%Ma%NULL%6,                        Dong%Xu%NULL%7,                        Haijing%Yu%NULL%5,                        Hongwu%Wang%NULL%5,                        Tao%Wang%NULL%0,                        Wei%Guo%NULL%5,                        Jia%Chen%NULL%5,                        Chen%Ding%NULL%5,                        Xiaoping%Zhang%NULL%5,                        Jiaquan%Huang%NULL%5,                        Meifang%Han%NULL%5,                        Shusheng%Li%NULL%5,                        Xiaoping%Luo%NULL%5,                        Jianping%Zhao%NULL%0,                        Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                         H.% Xia%null%1,                         W.% Yang%null%1,                         B.% Wang%null%0,                         T.% Guo%null%1,                         J.% Xiong%null%1,                         Z.% Jiang%null%1,                         Y.% Liu%null%0,                         X.% Yan%null%1,                         W.% Zhou%null%1,                         L.% Ye%null%1,                         B. % Zhang%null%1,      X.%Luo%null%1,      H.% Xia%null%1,      W.% Yang%null%1,      B.% Wang%null%0,      T.% Guo%null%1,      J.% Xiong%null%1,      Z.% Jiang%null%1,      Y.% Liu%null%0,      X.% Yan%null%1,      W.% Zhou%null%0,      L.% Ye%null%1,      B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                         Ting%Yu%NULL%0,                         Ronghui%Du%NULL%0,                         Guohui%Fan%NULL%0,                         Ying%Liu%NULL%0,                         Zhibo%Liu%NULL%0,                         Jie%Xiang%NULL%0,                         Yeming%Wang%NULL%0,                         Bin%Song%NULL%0,                         Xiaoying%Gu%NULL%0,                         Lulu%Guan%NULL%0,                         Yuan%Wei%NULL%0,                         Hui%Li%NULL%0,                         Xudong%Wu%NULL%0,                         Jiuyang%Xu%NULL%0,                         Shengjin%Tu%NULL%0,                         Yi%Zhang%NULL%0,                         Hua%Chen%NULL%0,                         Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                         Xinsheng%Yan%NULL%1,                         Qingkun%Fan%NULL%1,                         Haiyan%Liu%NULL%1,                         Xintian%Liu%NULL%1,                         Zejin%Liu%NULL%1,                         Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                         Li-Rong%Liang%NULL%0,                         Cheng-Qing%Yang%NULL%0,                         Wen%Wang%NULL%0,                         Tan-Ze%Cao%NULL%0,                         Ming%Li%NULL%0,                         Guang-Yun%Guo%NULL%0,                         Juan%Du%NULL%0,                         Chun-Lan%Zheng%NULL%0,                         Qi%Zhu%NULL%0,                         Ming%Hu%NULL%0,                         Xu-Yan%Li%NULL%0,                         Peng%Peng%NULL%0,                         Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                         Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                         Wenlin%Cheng%NULL%1,                         Lei%Yu%NULL%1,                         Ya-Kun%Liu%NULL%1,                         Xiaoyong%Hu%NULL%1,                         Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                         Anna Lisa%Ridolfo%NULL%0,                         Laura%Milazzo%NULL%0,                         Letizia%Oreni%NULL%0,                         Dario%Bernacchia%NULL%0,                         Matteo%Siano%NULL%0,                         Cecilia%Bonazzetti%NULL%0,                         Alice%Covizzi%NULL%0,                         Marco%Schiuma%NULL%0,                         Matteo%Passerini%NULL%0,                         Marco%Piscaglia%NULL%0,                         Massimo%Coen%NULL%0,                         Guido%Gubertini%NULL%0,                         Giuliano%Rizzardini%NULL%0,                         Chiara%Cogliati%NULL%0,                         Anna Maria%Brambilla%NULL%0,                         Riccardo%Colombo%NULL%0,                         Antonio%Castelli%NULL%0,                         Roberto%Rech%NULL%0,                         Agostino%Riva%NULL%0,                         Alessandro%Torre%NULL%0,                         Luca%Meroni%NULL%0,                         Stefano%Rusconi%NULL%0,                         Spinello%Antinori%NULL%0,                         Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                          A.% Russak%null%1,                          J. K.% De Freitas%null%1,                          A.% Lala%null%1,                          R.% Miotto%null%1,                          A.% Vaid%null%1,                          K. W.% Johnson%null%1,                          M.% Danieletto%null%1,                          E.% Golden%null%1,                          D.% Meyer%null%1,                          M.% Singh%null%1,                          S.% Somani%null%1,                          S.% Manna%null%1,                          U.% Nangia%null%1,                          A.% Kapoor%null%1,                          R.% O'Hagan%null%1,                          P. F.% O'Reilly%null%1,                          L. M.% Huckins%null%1,                          P.% Glowe%null%1,                          A.% Kia%null%1,                          P.% Timsina%null%1,                          R. M.% Freeman%null%1,                          M. A.% Levin%null%1,                          J.% Jhang%null%1,                          A.% Firpo%null%1,                          P.% Kovatch%null%1,                          J.% Finkelstein%null%1,                          J. A.% Aberg%null%1,                          E.% Bagiella%null%1,                          C. R.% Horowitz%null%1,                          B.% Murphy%null%1,                          Z. A.% Fayad%null%1,                          J.% Narula%null%1,                          E. J.% Nestler%null%1,                          V.% Fuster%null%1,                          C.% Cordon-Cardo%null%1,                          D. S.% Charney%null%1,                          D. L.% Reich%null%1,                          A. C.% Just%null%1,                          E. P.% Bottinger%null%1,                          A. W.% Charney%null%1,                          B. S.% Glicksberg%null%1,                          G.% Nadkarni%null%1,                         couldn't find firstname% Mount Sina %null%1,       I.%Paranjpe%null%1,       A.% Russak%null%1,       J. K.% De Freitas%null%1,       A.% Lala%null%1,       R.% Miotto%null%1,       A.% Vaid%null%1,       K. W.% Johnson%null%1,       M.% Danieletto%null%1,       E.% Golden%null%1,       D.% Meyer%null%1,       M.% Singh%null%1,       S.% Somani%null%1,       S.% Manna%null%1,       U.% Nangia%null%1,       A.% Kapoor%null%1,       R.% O'Hagan%null%1,       P. F.% O'Reilly%null%1,       L. M.% Huckins%null%1,       P.% Glowe%null%1,       A.% Kia%null%1,       P.% Timsina%null%1,       R. M.% Freeman%null%1,       M. A.% Levin%null%1,       J.% Jhang%null%1,       A.% Firpo%null%1,       P.% Kovatch%null%0,       J.% Finkelstein%null%1,       J. A.% Aberg%null%1,       E.% Bagiella%null%1,       C. R.% Horowitz%null%1,       B.% Murphy%null%1,       Z. A.% Fayad%null%1,       J.% Narula%null%1,       E. J.% Nestler%null%1,       V.% Fuster%null%1,       C.% Cordon-Cardo%null%1,       D. S.% Charney%null%1,       D. L.% Reich%null%1,       A. C.% Just%null%1,       E. P.% Bottinger%null%1,       A. W.% Charney%null%1,       B. S.% Glicksberg%null%1,       G.% Nadkarni%null%1,      couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                         Di%Wu%NULL%5,                         Huilong%Chen%NULL%5,                         Weiming%Yan%NULL%5,                         Danlei%Yang%NULL%5,                         Guang%Chen%NULL%5,                         Ke%Ma%NULL%6,                         Dong%Xu%NULL%7,                         Haijing%Yu%NULL%5,                         Hongwu%Wang%NULL%5,                         Tao%Wang%NULL%0,                         Wei%Guo%NULL%5,                         Jia%Chen%NULL%5,                         Chen%Ding%NULL%5,                         Xiaoping%Zhang%NULL%5,                         Jiaquan%Huang%NULL%5,                         Meifang%Han%NULL%5,                         Shusheng%Li%NULL%5,                         Xiaoping%Luo%NULL%5,                         Jianping%Zhao%NULL%0,                         Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                          H.% Xia%null%1,                          W.% Yang%null%1,                          B.% Wang%null%0,                          T.% Guo%null%1,                          J.% Xiong%null%1,                          Z.% Jiang%null%1,                          Y.% Liu%null%0,                          X.% Yan%null%1,                          W.% Zhou%null%1,                          L.% Ye%null%1,                          B. % Zhang%null%1,       X.%Luo%null%1,       H.% Xia%null%1,       W.% Yang%null%1,       B.% Wang%null%0,       T.% Guo%null%1,       J.% Xiong%null%1,       Z.% Jiang%null%1,       Y.% Liu%null%0,       X.% Yan%null%1,       W.% Zhou%null%0,       L.% Ye%null%1,       B. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1146,6 +1275,9 @@
       <c r="I1" t="s">
         <v>71</v>
       </c>
+      <c r="J1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1161,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>231</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1174,6 +1306,9 @@
       </c>
       <c r="I2" t="s">
         <v>219</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -1190,7 +1325,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1203,6 +1338,9 @@
       </c>
       <c r="I3" t="s">
         <v>219</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1219,7 +1357,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1232,6 +1370,9 @@
       </c>
       <c r="I4" t="s">
         <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1248,7 +1389,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1261,6 +1402,9 @@
       </c>
       <c r="I5" t="s">
         <v>222</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1277,7 +1421,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1290,6 +1434,9 @@
       </c>
       <c r="I6" t="s">
         <v>219</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -1306,7 +1453,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>236</v>
+        <v>280</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1319,6 +1466,9 @@
       </c>
       <c r="I7" t="s">
         <v>226</v>
+      </c>
+      <c r="J7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8">
@@ -1335,7 +1485,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1348,6 +1498,9 @@
       </c>
       <c r="I8" t="s">
         <v>222</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1364,7 +1517,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1377,6 +1530,9 @@
       </c>
       <c r="I9" t="s">
         <v>226</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -1393,7 +1549,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1405,7 +1561,10 @@
         <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/64.xlsx
+++ b/Covid_19_Dataset_and_References/References/64.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="299">
   <si>
     <t>Doi</t>
   </si>
@@ -954,6 +954,54 @@
   </si>
   <si>
     <t>[ X.%Luo%null%1,                          H.% Xia%null%1,                          W.% Yang%null%1,                          B.% Wang%null%0,                          T.% Guo%null%1,                          J.% Xiong%null%1,                          Z.% Jiang%null%1,                          Y.% Liu%null%0,                          X.% Yan%null%1,                          W.% Zhou%null%1,                          L.% Ye%null%1,                          B. % Zhang%null%1,       X.%Luo%null%1,       H.% Xia%null%1,       W.% Yang%null%1,       B.% Wang%null%0,       T.% Guo%null%1,       J.% Xiong%null%1,       Z.% Jiang%null%1,       Y.% Liu%null%0,       X.% Yan%null%1,       W.% Zhou%null%0,       L.% Ye%null%1,       B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                          Ting%Yu%NULL%0,                          Ronghui%Du%NULL%0,                          Guohui%Fan%NULL%0,                          Ying%Liu%NULL%0,                          Zhibo%Liu%NULL%0,                          Jie%Xiang%NULL%0,                          Yeming%Wang%NULL%0,                          Bin%Song%NULL%0,                          Xiaoying%Gu%NULL%0,                          Lulu%Guan%NULL%0,                          Yuan%Wei%NULL%0,                          Hui%Li%NULL%0,                          Xudong%Wu%NULL%0,                          Jiuyang%Xu%NULL%0,                          Shengjin%Tu%NULL%0,                          Yi%Zhang%NULL%0,                          Hua%Chen%NULL%0,                          Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                          Xinsheng%Yan%NULL%1,                          Qingkun%Fan%NULL%1,                          Haiyan%Liu%NULL%1,                          Xintian%Liu%NULL%1,                          Zejin%Liu%NULL%1,                          Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                          Li-Rong%Liang%NULL%0,                          Cheng-Qing%Yang%NULL%0,                          Wen%Wang%NULL%0,                          Tan-Ze%Cao%NULL%0,                          Ming%Li%NULL%0,                          Guang-Yun%Guo%NULL%0,                          Juan%Du%NULL%0,                          Chun-Lan%Zheng%NULL%0,                          Qi%Zhu%NULL%0,                          Ming%Hu%NULL%0,                          Xu-Yan%Li%NULL%0,                          Peng%Peng%NULL%0,                          Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                          Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                          Wenlin%Cheng%NULL%1,                          Lei%Yu%NULL%1,                          Ya-Kun%Liu%NULL%1,                          Xiaoyong%Hu%NULL%1,                          Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                          Anna Lisa%Ridolfo%NULL%0,                          Laura%Milazzo%NULL%0,                          Letizia%Oreni%NULL%0,                          Dario%Bernacchia%NULL%0,                          Matteo%Siano%NULL%0,                          Cecilia%Bonazzetti%NULL%0,                          Alice%Covizzi%NULL%0,                          Marco%Schiuma%NULL%0,                          Matteo%Passerini%NULL%0,                          Marco%Piscaglia%NULL%0,                          Massimo%Coen%NULL%0,                          Guido%Gubertini%NULL%0,                          Giuliano%Rizzardini%NULL%0,                          Chiara%Cogliati%NULL%0,                          Anna Maria%Brambilla%NULL%0,                          Riccardo%Colombo%NULL%0,                          Antonio%Castelli%NULL%0,                          Roberto%Rech%NULL%0,                          Agostino%Riva%NULL%0,                          Alessandro%Torre%NULL%0,                          Luca%Meroni%NULL%0,                          Stefano%Rusconi%NULL%0,                          Spinello%Antinori%NULL%0,                          Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                           A.% Russak%null%1,                           J. K.% De Freitas%null%1,                           A.% Lala%null%1,                           R.% Miotto%null%1,                           A.% Vaid%null%1,                           K. W.% Johnson%null%1,                           M.% Danieletto%null%1,                           E.% Golden%null%1,                           D.% Meyer%null%1,                           M.% Singh%null%1,                           S.% Somani%null%1,                           S.% Manna%null%1,                           U.% Nangia%null%1,                           A.% Kapoor%null%1,                           R.% O'Hagan%null%1,                           P. F.% O'Reilly%null%1,                           L. M.% Huckins%null%1,                           P.% Glowe%null%1,                           A.% Kia%null%1,                           P.% Timsina%null%1,                           R. M.% Freeman%null%1,                           M. A.% Levin%null%1,                           J.% Jhang%null%1,                           A.% Firpo%null%1,                           P.% Kovatch%null%1,                           J.% Finkelstein%null%1,                           J. A.% Aberg%null%1,                           E.% Bagiella%null%1,                           C. R.% Horowitz%null%1,                           B.% Murphy%null%1,                           Z. A.% Fayad%null%1,                           J.% Narula%null%1,                           E. J.% Nestler%null%1,                           V.% Fuster%null%1,                           C.% Cordon-Cardo%null%1,                           D. S.% Charney%null%1,                           D. L.% Reich%null%1,                           A. C.% Just%null%1,                           E. P.% Bottinger%null%1,                           A. W.% Charney%null%1,                           B. S.% Glicksberg%null%1,                           G.% Nadkarni%null%1,                          couldn't find firstname% Mount Sina %null%1,        I.%Paranjpe%null%1,        A.% Russak%null%1,        J. K.% De Freitas%null%1,        A.% Lala%null%1,        R.% Miotto%null%1,        A.% Vaid%null%1,        K. W.% Johnson%null%1,        M.% Danieletto%null%1,        E.% Golden%null%1,        D.% Meyer%null%1,        M.% Singh%null%1,        S.% Somani%null%1,        S.% Manna%null%1,        U.% Nangia%null%1,        A.% Kapoor%null%1,        R.% O'Hagan%null%1,        P. F.% O'Reilly%null%1,        L. M.% Huckins%null%1,        P.% Glowe%null%1,        A.% Kia%null%1,        P.% Timsina%null%1,        R. M.% Freeman%null%1,        M. A.% Levin%null%1,        J.% Jhang%null%1,        A.% Firpo%null%1,        P.% Kovatch%null%0,        J.% Finkelstein%null%1,        J. A.% Aberg%null%1,        E.% Bagiella%null%1,        C. R.% Horowitz%null%1,        B.% Murphy%null%1,        Z. A.% Fayad%null%1,        J.% Narula%null%1,        E. J.% Nestler%null%1,        V.% Fuster%null%1,        C.% Cordon-Cardo%null%1,        D. S.% Charney%null%1,        D. L.% Reich%null%1,        A. C.% Just%null%1,        E. P.% Bottinger%null%1,        A. W.% Charney%null%1,        B. S.% Glicksberg%null%1,        G.% Nadkarni%null%1,       couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                          Di%Wu%NULL%5,                          Huilong%Chen%NULL%5,                          Weiming%Yan%NULL%5,                          Danlei%Yang%NULL%5,                          Guang%Chen%NULL%5,                          Ke%Ma%NULL%6,                          Dong%Xu%NULL%7,                          Haijing%Yu%NULL%5,                          Hongwu%Wang%NULL%5,                          Tao%Wang%NULL%0,                          Wei%Guo%NULL%5,                          Jia%Chen%NULL%5,                          Chen%Ding%NULL%5,                          Xiaoping%Zhang%NULL%5,                          Jiaquan%Huang%NULL%5,                          Meifang%Han%NULL%5,                          Shusheng%Li%NULL%5,                          Xiaoping%Luo%NULL%5,                          Jianping%Zhao%NULL%0,                          Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                           H.% Xia%null%1,                           W.% Yang%null%1,                           B.% Wang%null%0,                           T.% Guo%null%1,                           J.% Xiong%null%1,                           Z.% Jiang%null%1,                           Y.% Liu%null%0,                           X.% Yan%null%1,                           W.% Zhou%null%1,                           L.% Ye%null%1,                           B. % Zhang%null%1,        X.%Luo%null%1,        H.% Xia%null%1,        W.% Yang%null%1,        B.% Wang%null%0,        T.% Guo%null%1,        J.% Xiong%null%1,        Z.% Jiang%null%1,        Y.% Liu%null%0,        X.% Yan%null%1,        W.% Zhou%null%0,        L.% Ye%null%1,        B. % Zhang%null%1]</t>
+  </si>
+  <si>
+    <t>[Fei%Zhou%NULL%0,                           Ting%Yu%NULL%0,                           Ronghui%Du%NULL%0,                           Guohui%Fan%NULL%0,                           Ying%Liu%NULL%0,                           Zhibo%Liu%NULL%0,                           Jie%Xiang%NULL%0,                           Yeming%Wang%NULL%0,                           Bin%Song%NULL%0,                           Xiaoying%Gu%NULL%0,                           Lulu%Guan%NULL%0,                           Yuan%Wei%NULL%0,                           Hui%Li%NULL%0,                           Xudong%Wu%NULL%0,                           Jiuyang%Xu%NULL%0,                           Shengjin%Tu%NULL%0,                           Yi%Zhang%NULL%0,                           Hua%Chen%NULL%0,                           Bin%Cao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Litao%Zhang%NULL%1,                           Xinsheng%Yan%NULL%1,                           Qingkun%Fan%NULL%1,                           Haiyan%Liu%NULL%1,                           Xintian%Liu%NULL%1,                           Zejin%Liu%NULL%1,                           Zhenlu%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Rong-Hui%Du%NULL%0,                           Li-Rong%Liang%NULL%0,                           Cheng-Qing%Yang%NULL%0,                           Wen%Wang%NULL%0,                           Tan-Ze%Cao%NULL%0,                           Ming%Li%NULL%0,                           Guang-Yun%Guo%NULL%0,                           Juan%Du%NULL%0,                           Chun-Lan%Zheng%NULL%0,                           Qi%Zhu%NULL%0,                           Ming%Hu%NULL%0,                           Xu-Yan%Li%NULL%0,                           Peng%Peng%NULL%0,                           Huan-Zhong%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jianlei%Cao%NULL%0,                           Wen-Jun%Tu%tuwenjun@irm-cams.ac.cn%1,                           Wenlin%Cheng%NULL%1,                           Lei%Yu%NULL%1,                           Ya-Kun%Liu%NULL%1,                           Xiaoyong%Hu%NULL%1,                           Qiang%Liu%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                           Anna Lisa%Ridolfo%NULL%0,                           Laura%Milazzo%NULL%0,                           Letizia%Oreni%NULL%0,                           Dario%Bernacchia%NULL%0,                           Matteo%Siano%NULL%0,                           Cecilia%Bonazzetti%NULL%0,                           Alice%Covizzi%NULL%0,                           Marco%Schiuma%NULL%0,                           Matteo%Passerini%NULL%0,                           Marco%Piscaglia%NULL%0,                           Massimo%Coen%NULL%0,                           Guido%Gubertini%NULL%0,                           Giuliano%Rizzardini%NULL%0,                           Chiara%Cogliati%NULL%0,                           Anna Maria%Brambilla%NULL%0,                           Riccardo%Colombo%NULL%0,                           Antonio%Castelli%NULL%0,                           Roberto%Rech%NULL%0,                           Agostino%Riva%NULL%0,                           Alessandro%Torre%NULL%0,                           Luca%Meroni%NULL%0,                           Stefano%Rusconi%NULL%0,                           Spinello%Antinori%NULL%0,                           Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ I.%Paranjpe%null%1,                            A.% Russak%null%1,                            J. K.% De Freitas%null%1,                            A.% Lala%null%1,                            R.% Miotto%null%1,                            A.% Vaid%null%1,                            K. W.% Johnson%null%1,                            M.% Danieletto%null%1,                            E.% Golden%null%1,                            D.% Meyer%null%1,                            M.% Singh%null%1,                            S.% Somani%null%1,                            S.% Manna%null%1,                            U.% Nangia%null%1,                            A.% Kapoor%null%1,                            R.% O'Hagan%null%1,                            P. F.% O'Reilly%null%1,                            L. M.% Huckins%null%1,                            P.% Glowe%null%1,                            A.% Kia%null%1,                            P.% Timsina%null%1,                            R. M.% Freeman%null%1,                            M. A.% Levin%null%1,                            J.% Jhang%null%1,                            A.% Firpo%null%1,                            P.% Kovatch%null%1,                            J.% Finkelstein%null%1,                            J. A.% Aberg%null%1,                            E.% Bagiella%null%1,                            C. R.% Horowitz%null%1,                            B.% Murphy%null%1,                            Z. A.% Fayad%null%1,                            J.% Narula%null%1,                            E. J.% Nestler%null%1,                            V.% Fuster%null%1,                            C.% Cordon-Cardo%null%1,                            D. S.% Charney%null%1,                            D. L.% Reich%null%1,                            A. C.% Just%null%1,                            E. P.% Bottinger%null%1,                            A. W.% Charney%null%1,                            B. S.% Glicksberg%null%1,                            G.% Nadkarni%null%1,                           couldn't find firstname% Mount Sina %null%1,         I.%Paranjpe%null%1,         A.% Russak%null%1,         J. K.% De Freitas%null%1,         A.% Lala%null%1,         R.% Miotto%null%1,         A.% Vaid%null%1,         K. W.% Johnson%null%1,         M.% Danieletto%null%1,         E.% Golden%null%1,         D.% Meyer%null%1,         M.% Singh%null%1,         S.% Somani%null%1,         S.% Manna%null%1,         U.% Nangia%null%1,         A.% Kapoor%null%1,         R.% O'Hagan%null%1,         P. F.% O'Reilly%null%1,         L. M.% Huckins%null%1,         P.% Glowe%null%1,         A.% Kia%null%1,         P.% Timsina%null%1,         R. M.% Freeman%null%1,         M. A.% Levin%null%1,         J.% Jhang%null%1,         A.% Firpo%null%1,         P.% Kovatch%null%0,         J.% Finkelstein%null%1,         J. A.% Aberg%null%1,         E.% Bagiella%null%1,         C. R.% Horowitz%null%1,         B.% Murphy%null%1,         Z. A.% Fayad%null%1,         J.% Narula%null%1,         E. J.% Nestler%null%1,         V.% Fuster%null%1,         C.% Cordon-Cardo%null%1,         D. S.% Charney%null%1,         D. L.% Reich%null%1,         A. C.% Just%null%1,         E. P.% Bottinger%null%1,         A. W.% Charney%null%1,         B. S.% Glicksberg%null%1,         G.% Nadkarni%null%1,        couldn't find firstname% Mount Sina %null%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0,                           Di%Wu%NULL%5,                           Huilong%Chen%NULL%5,                           Weiming%Yan%NULL%5,                           Danlei%Yang%NULL%5,                           Guang%Chen%NULL%5,                           Ke%Ma%NULL%6,                           Dong%Xu%NULL%7,                           Haijing%Yu%NULL%5,                           Hongwu%Wang%NULL%5,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%5,                           Jia%Chen%NULL%5,                           Chen%Ding%NULL%5,                           Xiaoping%Zhang%NULL%5,                           Jiaquan%Huang%NULL%5,                           Meifang%Han%NULL%5,                           Shusheng%Li%NULL%5,                           Xiaoping%Luo%NULL%5,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%5]</t>
+  </si>
+  <si>
+    <t>[ X.%Luo%null%1,                            H.% Xia%null%1,                            W.% Yang%null%1,                            B.% Wang%null%0,                            T.% Guo%null%1,                            J.% Xiong%null%1,                            Z.% Jiang%null%1,                            Y.% Liu%null%0,                            X.% Yan%null%1,                            W.% Zhou%null%1,                            L.% Ye%null%1,                            B. % Zhang%null%1,         X.%Luo%null%1,         H.% Xia%null%1,         W.% Yang%null%1,         B.% Wang%null%0,         T.% Guo%null%1,         J.% Xiong%null%1,         Z.% Jiang%null%1,         Y.% Liu%null%0,         X.% Yan%null%1,         W.% Zhou%null%0,         L.% Ye%null%1,         B. % Zhang%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1293,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1325,7 +1373,7 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
@@ -1357,7 +1405,7 @@
         <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -1389,7 +1437,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1421,7 +1469,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -1453,7 +1501,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1485,7 +1533,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
         <v>57</v>
@@ -1517,7 +1565,7 @@
         <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1549,7 +1597,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
